--- a/MGLG/table.xlsx
+++ b/MGLG/table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.4204"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazin\OneDrive\바탕 화면\귀미션\봇코딩\trpgbot\MGLG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polks\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="14115" windowHeight="11310" tabRatio="500" activeTab="36"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500" activeTab="37"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="장면" sheetId="1" r:id="rId4"/>
@@ -49,656 +49,939 @@
     <x:sheet name="운명변전초자연" sheetId="35" r:id="rId38"/>
     <x:sheet name="운명변전불가사의" sheetId="36" r:id="rId39"/>
     <x:sheet name="운명변전코믹" sheetId="37" r:id="rId40"/>
+    <x:sheet name="펌블" sheetId="38" r:id="rId41"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
+  <x:si>
+    <x:t>인파로 북적이는 길거리. 건너편에서 당신과 쏙 빼닮은 인물이 걸어온다. 저것은 이 세계의 당신 자신일까? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠 속 에서 사악한 존재 가 태동 한다.이대로는 사건 이 더욱 심각 해지고 말 것이다.무작위로 특기 1개를 선택 한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소가 1점 발생한다. 실패 했을 경우 , 닌자 라면 1 점 의 사격 전 대미지 를 입고 , 봉마인이라면 광기를 1장 획득하고 , 마법사라면 운명 변전표를 사용 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닌자. 그 인물은 사실 당신을 죽이라는 사명을 띤 닌자다. 데이터는 〈닌자〉(p177)를 사용한다. GM은 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복잡한 뒷골목. 기묘한 이종족들로 구성된 도적단의 습격을 받는다. 《우레》로 판정한다. 판정에 실패하면 마력을 2점 감소하든지, 아니면 마법에 충전한 마소가 2점 이상 있을 경우 그것을 감소하든지 선택해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「밤 축제」. 별빛이나 제등을 조명 삼아 끝없는 축제가 계속된다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 【치료】 속주를 사용했을 때 소비한 마소 1점당 2점씩의 마력을 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 말의 파편으로 변해가고, 승자는 거기에서 미래의 운명을 읽어낸다. 승자는 「사건 표」를 사용한 후, 그 결과를 기록해둔다. 그 후, 그 세션 중에 연 드라마 장면에, 같은 장면에 등장한 캐릭터 한 명을 골라서 한 번만 해당 결과를 적용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「마법문」, 다른 이경으로 통하는 입구가 있다. 「각인에 따른 풍경」에서 |지정한 특기로 판정해서 성공하면 그 마법문을 발견할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살티레 백화점의 옥상. 바람 이 거세 긴 하지만 , 이곳 이라면 시내 가 훤히 보인다.장면 플레이어 가 마법 사라면 별 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 빛의 입자로 변해가고, 승자는 거기에서 마소를 얻는다. 승자는 아무거나 마소를 2점 획득한다(자신의 입회인에게 넘겨줄 수도 있다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 당신의 마소를 빼앗는다. 충전한 마소를 임의의 조합으로 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매우 혼잡한 시장. 형형색색의 식료품이나 일용품을 비롯해서 환수의 눈알이나 만드라고라의 뿌리 같은 마법 촉매까지 팔고 있다. 이 장면에 등장한 PC는 각자 한 번씩 공적점이나 마화 1점을 소비해서 원하는 마소를 2점 획득할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저녁, 녹슨 선로, 그 앞쪽까지 대량의 해골이 아무렇게나 굴러다니고 있다. 허무 빙의자가 하나 나타나 덤벼든다. 마법전을 개시한다. 2라운드가 경과할 때까지는 낮 이후의 라운드는 밤으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단장. 그 인물에게는 이번 사건과 관계 없는 〈단장〉이 빙의되어 있었다. 데이터는 〈열락〉(P173)을 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백은 갑옷을 입은 기사가 나타난다. 기사는 일대일 결투를 신청했다. 장면에 등장한 PC 중에서 대표 한 명을 선택한다. 대표는 「노래」 영역에서 무작위 로 특기 하나를 선택해서 판정해야 한다. 실패하면, 대표가 5점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용한 시립 도서관 , 천장 이 높은 건물 의 벽 전체 를 책꽂이 가 빈틈 없이 메우고 있다. 주위 에서는 책 의 페이지를 넘기는 소리 만 이 울려 퍼진다.장면 플레이어 가 마법사 라면 자기 영역의 마소가 1점 발생한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당신의 눈앞 에 보이지 않는 적이 나타난다.너 같은 걸 상대 할 때가 아닌데 ... 무작위 로 특기 1 개 를 선택한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소 가 1 점 발생 한다. 실패 했을 경우 , 마법사 라면 무작위로 한 가지 상태 이상 에 걸린다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생이 뭔가 마법을 보여달라고 청한다. 꿈 영역에서 무작위로 특기 하나를 선택한다. 이 장면에등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 불운 상태이상에 걸린다. 성공하면,「꿈」 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우자의 세계에서 일어난 사건을 마법으로 몰래 해결한다. 그 기적적인 결말이 동영상 사이트에서 입소문을 탄다. 이 장면에 등장한 PC 중 한 명은 《희망》으로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방해. 그 인물은 사실 현재 조사자가 쫓는 〈단장〉을 빼앗으려는 〈서적경〉이었다. 데이터는 〈유혹을 속삭이는 자〉(P174)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데 … ? 책상 , 의자 , 서류함 따위 가 주위 에 널려 있다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 외벽에 설치된 나선 계단 위. 강풍이 불어닥치고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 폐허가 된 농촌 근처에서 맛있어 보이는 과일을 발견한다. 《대지》로 판정해서 성공하면 마력이 2점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤의 길거리를 걷는다. 저 멀리 집집마다 따스하게 빛나는 조명이 보인다. 그 장면에 노래 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인파로 북적이는 광장, 축제라도 열었나? 누군가가 부르는 소리가 들린다. 그 장면에 짐승 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유럽을 돌아본다. 멋진 거리의 풍경과 예술, 아름다운 자연, 특산품. 가끔은 여행 기분을 내는 것도 나쁘지 않다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 안에 그윽하게 풍겨나 는 커피 냄새.cafe attic 에서 조용히 커피 잔 을 기울이며 생각 에 잠긴다. 장면 플레이어 가 마법사 라면 노래 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석제 타일이 깔려 있는 텅 빈 방. 바닥에 그린 마법진이 묘하게 기분 나쁜 빛을 내고 있다. 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 그 마법진을 지구로 귀환하는 마법문으로 사용할 수 있다. 판정에 실패하면 마법문에서 나타난 미지의 괴물에게 습격받아 이 장면에 등장한 PC 전원의 마력이 1D6점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는 ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막다른 골목. 눈앞에는 왠지 커다란 상자가 있다. 이 씬에 등장한 PC 중 한 사람은 《수수께끼》로 판정할 수 있다. 성공하면 상자 안에서 프라이즈를 발견한다. 「프라이즈 표(『대몽소멸』 228페이지 수록/대형판 룰북 79페이지)」를 한 번 사용할 수 있다. 실패하면 함정이 발동한다. 상자는 폭발하고, 이 신에 등장한 PC 전원의 【마력】이 1점 감 소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
+  </x:si>
   <x:si>
     <x:t>가출, 지금 자신이 있는 장소를 불편하게 여겨 실된다.</x:t>
   </x:si>
   <x:si>
-    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 외벽에 설치된 나선 계단 위. 강풍이 불어닥치고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 안에 그윽하게 풍겨나 는 커피 냄새.cafe attic 에서 조용히 커피 잔 을 기울이며 생각 에 잠긴다. 장면 플레이어 가 마법사 라면 노래 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
+    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"여기 앉아도 될까요?" 당신의 옆자리에 〈서적경〉이 앉는다. 무작위로 특기를 선택해서 판정한다. 그 판정에 성공하면 공개된 핸드아웃 중에서 원하는 것을 골라 해당하는 【비밀】을 공개할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤길. 뒤에서 검은 무언가가 아른거리며 쫓아온다. 명확한 모습도 알아볼 수 없건만, 굉장히 무섭다. 무작위로 특기 하나를 선택한다. 이기 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소 2점을 획득할 수 있다. 판정에 실패하면 아른거리는 형체의 검은 무언가가 자신의 앵커 앞에 나타난다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시노노메 신사 의 경내.먹이 를 찾아 모여 든 비둘기 들이 소란 을 피우고 있는 것 같은데 .... … ? 장면 플레이어가 마법사라면 짐승 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 폭발음과 함께 어딘가로 사라지고, 주위에는 유황 냄새 같은 냄새만이 남는다. 승자는 그 세션 중에 한 번만 원하는 타이밍에 상태이상, 한 종류를 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑작 스러운 비.우산 을 챙기지 못한 학생들 은 키타 로쿠 분기 상점가 의 아케이드 거리 로 달려 간다. 장면 플레이어 가 마법사 라면 힘 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기숙사 복도, 거기 누구죠?」 사감 시그리드가 불러 세웠다. 이 장면에 등장한 PC는 자유로 판정한다. 실패하면 이 장면에서 시도하는 모든 판정에 1의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의점 , 에브리 시노노메점. BGM 이 흘러 나오는 점 내에 어느새 당신 혼자 남아 있다.장면 플레이어 가 마법사라면 꿈 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새가 지저귀는 소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꿈 속. 먼 과거의 풍경이 당신의 앞에 나타난다. 그 장면에 꿈 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평범하기 그지없는 평화로운 풍경. 하지만 그런 일상의 배후에서 마법 재액의 그림자를 느낀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정한 누군가를 벌해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘도 시끌벅적한 아오 자메 거리.취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨 가며 걷고 있다.장면 플레이어가 마법사라면 어둠 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
   </x:si>
   <x:si>
     <x:t>주위에서 〈단장〉이 일으킨 마법 재액이 발생한다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 그 장면에 원하는 마소가 1점 발생한다. 실패하면 「운명 변전 표를 사용한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>통로 건너편에 문과 간판이 있다. 간판의 문자를 읽어보니 여관이라 는 의미다. 이 장면에 등장한 PC 전원은 한 번만 공적점이나 마화 1점을 소비해서 조율을 1회 할 수 있다.</x:t>
   </x:si>
   <x:si>
     <x:t>초등학교 앞을 지나간다. 음악실 창 너머로 낯선 음악가의 초상화가 보인다. 노래 영역에서 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「봉인」 상태이상에 걸린다.</x:t>
   </x:si>
   <x:si>
-    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
   </x:si>
   <x:si>
     <x:t>자신이 잃어버린 무언가를 되찾아달라.</x:t>
   </x:si>
   <x:si>
+    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>자신 이외의 특정한 누군가를 도와달라.</x:t>
   </x:si>
   <x:si>
-    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의점 , 에브리 시노노메점. BGM 이 흘러 나오는 점 내에 어느새 당신 혼자 남아 있다.장면 플레이어 가 마법사라면 꿈 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤길. 뒤에서 검은 무언가가 아른거리며 쫓아온다. 명확한 모습도 알아볼 수 없건만, 굉장히 무섭다. 무작위로 특기 하나를 선택한다. 이기 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소 2점을 획득할 수 있다. 판정에 실패하면 아른거리는 형체의 검은 무언가가 자신의 앵커 앞에 나타난다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새가 지저귀는 소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁, 녹슨 선로, 그 앞쪽까지 대량의 해골이 아무렇게나 굴러다니고 있다. 허무 빙의자가 하나 나타나 덤벼든다. 마법전을 개시한다. 2라운드가 경과할 때까지는 낮 이후의 라운드는 밤으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단장. 그 인물에게는 이번 사건과 관계 없는 〈단장〉이 빙의되어 있었다. 데이터는 〈열락〉(P173)을 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백은 갑옷을 입은 기사가 나타난다. 기사는 일대일 결투를 신청했다. 장면에 등장한 PC 중에서 대표 한 명을 선택한다. 대표는 「노래」 영역에서 무작위 로 특기 하나를 선택해서 판정해야 한다. 실패하면, 대표가 5점의 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤의 길거리를 걷는다. 저 멀리 집집마다 따스하게 빛나는 조명이 보인다. 그 장면에 노래 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인파로 북적이는 광장, 축제라도 열었나? 누군가가 부르는 소리가 들린다. 그 장면에 짐승 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
+    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
   </x:si>
   <x:si>
     <x:t>살랑거리는 풀에서 부드러운 풀내음이 난다.</x:t>
   </x:si>
   <x:si>
-    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 폐허가 된 농촌 근처에서 맛있어 보이는 과일을 발견한다. 《대지》로 판정해서 성공하면 마력이 2점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살티레 백화점의 옥상. 바람 이 거세 긴 하지만 , 이곳 이라면 시내 가 훤히 보인다.장면 플레이어 가 마법 사라면 별 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 말의 파편으로 변해가고, 승자는 거기에서 미래의 운명을 읽어낸다. 승자는 「사건 표」를 사용한 후, 그 결과를 기록해둔다. 그 후, 그 세션 중에 연 드라마 장면에, 같은 장면에 등장한 캐릭터 한 명을 골라서 한 번만 해당 결과를 적용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「밤 축제」. 별빛이나 제등을 조명 삼아 끝없는 축제가 계속된다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 【치료】 속주를 사용했을 때 소비한 마소 1점당 2점씩의 마력을 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 혼잡한 시장. 형형색색의 식료품이나 일용품을 비롯해서 환수의 눈알이나 만드라고라의 뿌리 같은 마법 촉매까지 팔고 있다. 이 장면에 등장한 PC는 각자 한 번씩 공적점이나 마화 1점을 소비해서 원하는 마소를 2점 획득할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 빛의 입자로 변해가고, 승자는 거기에서 마소를 얻는다. 승자는 아무거나 마소를 2점 획득한다(자신의 입회인에게 넘겨줄 수도 있다).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닌자. 그 인물은 사실 당신을 죽이라는 사명을 띤 닌자다. 데이터는 〈닌자〉(p177)를 사용한다. GM은 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복잡한 뒷골목. 기묘한 이종족들로 구성된 도적단의 습격을 받는다. 《우레》로 판정한다. 판정에 실패하면 마력을 2점 감소하든지, 아니면 마법에 충전한 마소가 2점 이상 있을 경우 그것을 감소하든지 선택해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데 … ? 책상 , 의자 , 서류함 따위 가 주위 에 널려 있다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>막다른 골목. 눈앞에는 왠지 커다란 상자가 있다. 이 씬에 등장한 PC 중 한 사람은 《수수께끼》로 판정할 수 있다. 성공하면 상자 안에서 프라이즈를 발견한다. 「프라이즈 표(『대몽소멸』 228페이지 수록/대형판 룰북 79페이지)」를 한 번 사용할 수 있다. 실패하면 함정이 발동한다. 상자는 폭발하고, 이 신에 등장한 PC 전원의 【마력】이 1점 감 소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
+    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드러난 피부와 뜨거운 숨결이 가득한 장소, 무수한 남녀가 정신 없이 육욕을 탐하고 있다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하고, 실패하면 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새하얀 빛에 휩싸인 식당, 호화로운 식사와 맛있는 술을 끝없이 대접받는다. 이 장면에 등장한 PC 중 한 명은 《살》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
   </x:si>
   <x:si>
     <x:t>예배당. 죽어서도 여전히 기도를 올리는 영혼이 말 없이 무릎을 꿇고 있다. 이 장면에 등장한 PC 중 한 명은 《기도》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 불운 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>새하얀 빛에 휩싸인 식당, 호화로운 식사와 맛있는 술을 끝없이 대접받는다. 이 장면에 등장한 PC 중 한 명은 《살》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드러난 피부와 뜨거운 숨결이 가득한 장소, 무수한 남녀가 정신 없이 육욕을 탐하고 있다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하고, 실패하면 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기숙사 복도, 거기 누구죠?」 사감 시그리드가 불러 세웠다. 이 장면에 등장한 PC는 자유로 판정한다. 실패하면 이 장면에서 시도하는 모든 판정에 1의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 폭발음과 함께 어딘가로 사라지고, 주위에는 유황 냄새 같은 냄새만이 남는다. 승자는 그 세션 중에 한 번만 원하는 타이밍에 상태이상, 한 종류를 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑작 스러운 비.우산 을 챙기지 못한 학생들 은 키타 로쿠 분기 상점가 의 아케이드 거리 로 달려 간다. 장면 플레이어 가 마법사 라면 힘 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시노노메 신사 의 경내.먹이 를 찾아 모여 든 비둘기 들이 소란 을 피우고 있는 것 같은데 .... … ? 장면 플레이어가 마법사라면 짐승 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>"여기 앉아도 될까요?" 당신의 옆자리에 〈서적경〉이 앉는다. 무작위로 특기를 선택해서 판정한다. 그 판정에 성공하면 공개된 핸드아웃 중에서 원하는 것을 골라 해당하는 【비밀】을 공개할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용한 시립 도서관 , 천장 이 높은 건물 의 벽 전체 를 책꽂이 가 빈틈 없이 메우고 있다. 주위 에서는 책 의 페이지를 넘기는 소리 만 이 울려 퍼진다.장면 플레이어 가 마법사 라면 자기 영역의 마소가 1점 발생한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인파로 북적이는 길거리. 건너편에서 당신과 쏙 빼닮은 인물이 걸어온다. 저것은 이 세계의 당신 자신일까? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠 속 에서 사악한 존재 가 태동 한다.이대로는 사건 이 더욱 심각 해지고 말 것이다.무작위로 특기 1개를 선택 한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소가 1점 발생한다. 실패 했을 경우 , 닌자 라면 1 점 의 사격 전 대미지 를 입고 , 봉마인이라면 광기를 1장 획득하고 , 마법사라면 운명 변전표를 사용 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범하기 그지없는 평화로운 풍경. 하지만 그런 일상의 배후에서 마법 재액의 그림자를 느낀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꿈 속. 먼 과거의 풍경이 당신의 앞에 나타난다. 그 장면에 꿈 마소가 1점 발생한다.</x:t>
+    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
   </x:si>
   <x:si>
     <x:t>천장이 높은 복도, 두꺼운 문 너머에서 수업을 하는 강사의 목소리가 희미하게 들려온다.</x:t>
   </x:si>
   <x:si>
+    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>눈앞에 아름다운 흑룡이 나타났다. 학원장 자날파토스다. 대체 무슨 말을 하러 나타난 걸까?</x:t>
   </x:si>
   <x:si>
@@ -708,286 +991,22 @@
     <x:t xml:space="preserve">파괴된 서가가 쌓여 만들어진 미로 같은 통로가 계속된다. 이 앞에는 무엇이 있는 걸까. </x:t>
   </x:si>
   <x:si>
-    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>밤에 거리를 돌아다닌다. 잘 아는 풍경인데도 어딘가 다르다는 위화감을 떨칠 수가 없다.</x:t>
   </x:si>
   <x:si>
-    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘도 시끌벅적한 아오 자메 거리.취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨 가며 걷고 있다.장면 플레이어가 마법사라면 어둠 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는 ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「마법문」, 다른 이경으로 통하는 입구가 있다. 「각인에 따른 풍경」에서 |지정한 특기로 판정해서 성공하면 그 마법문을 발견할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정한 누군가를 벌해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석제 타일이 깔려 있는 텅 빈 방. 바닥에 그린 마법진이 묘하게 기분 나쁜 빛을 내고 있다. 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 그 마법진을 지구로 귀환하는 마법문으로 사용할 수 있다. 판정에 실패하면 마법문에서 나타난 미지의 괴물에게 습격받아 이 장면에 등장한 PC 전원의 마력이 1D6점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유럽을 돌아본다. 멋진 거리의 풍경과 예술, 아름다운 자연, 특산품. 가끔은 여행 기분을 내는 것도 나쁘지 않다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생이 뭔가 마법을 보여달라고 청한다. 꿈 영역에서 무작위로 특기 하나를 선택한다. 이 장면에등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 불운 상태이상에 걸린다. 성공하면,「꿈」 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당신의 눈앞 에 보이지 않는 적이 나타난다.너 같은 걸 상대 할 때가 아닌데 ... 무작위 로 특기 1 개 를 선택한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소 가 1 점 발생 한다. 실패 했을 경우 , 마법사 라면 무작위로 한 가지 상태 이상 에 걸린다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우자의 세계에서 일어난 사건을 마법으로 몰래 해결한다. 그 기적적인 결말이 동영상 사이트에서 입소문을 탄다. 이 장면에 등장한 PC 중 한 명은 《희망》으로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방해. 그 인물은 사실 현재 조사자가 쫓는 〈단장〉을 빼앗으려는 〈서적경〉이었다. 데이터는 〈유혹을 속삭이는 자〉(P174)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
+    <x:t>마법재액이 당신의 앵커를 덮친다. 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 직접 당신을 덮친다. 상태이상 표를 사용하여 정해진 상태이상을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법의 제어에 실패한다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 일어나는 바람에, 그 사이클이 끝날 때까지 자신의 행동판정에 -1의 수정이 붙는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴유, 큰일날 뻔했다. 아무 일도 일어나지 않는다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1025,26 +1044,11 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -1097,8 +1101,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1120,10 +1124,13 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="top"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0" iLevel="0"/>
-    <x:cellStyle name="표준" xfId="1" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="1"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1785,7 +1792,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="C18" activeCellId="0" sqref="C18:C18"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1796,7 +1803,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1804,7 +1811,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1812,7 +1819,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1820,7 +1827,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>229</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1828,7 +1835,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1836,7 +1843,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1844,7 +1851,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -1852,7 +1859,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1860,7 +1867,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1868,7 +1875,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -1876,11 +1883,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1890,7 +1897,7 @@
   <x:sheetPr codeName="Sheet10"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1901,7 +1908,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1909,7 +1916,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1917,7 +1924,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1925,7 +1932,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1933,7 +1940,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1941,7 +1948,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1949,7 +1956,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -1957,7 +1964,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1965,7 +1972,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1973,7 +1980,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -1981,11 +1988,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1995,7 +2002,7 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2006,7 +2013,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2014,7 +2021,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2022,7 +2029,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2030,7 +2037,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2038,7 +2045,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2046,7 +2053,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2054,7 +2061,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2062,7 +2069,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2070,7 +2077,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2078,7 +2085,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2086,11 +2093,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2100,7 +2107,7 @@
   <x:sheetPr codeName="Sheet12"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2111,7 +2118,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2119,7 +2126,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2127,7 +2134,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2135,7 +2142,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2143,7 +2150,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2151,7 +2158,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2159,7 +2166,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2167,7 +2174,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2175,7 +2182,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2183,7 +2190,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2191,11 +2198,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2205,7 +2212,7 @@
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2216,7 +2223,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2224,7 +2231,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2232,7 +2239,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2240,7 +2247,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2248,7 +2255,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>295</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2256,7 +2263,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2264,7 +2271,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2272,7 +2279,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2280,7 +2287,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>294</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2288,7 +2295,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2296,11 +2303,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2310,7 +2317,7 @@
   <x:sheetPr codeName="Sheet14"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2321,7 +2328,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2329,7 +2336,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2337,7 +2344,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2345,7 +2352,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2353,7 +2360,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2361,7 +2368,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2369,7 +2376,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2377,7 +2384,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>262</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2385,7 +2392,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>276</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2393,7 +2400,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2401,11 +2408,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2415,7 +2422,7 @@
   <x:sheetPr codeName="Sheet15"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2426,7 +2433,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2434,7 +2441,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2442,7 +2449,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2450,7 +2457,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2458,7 +2465,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2466,7 +2473,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2474,7 +2481,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2482,7 +2489,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2490,7 +2497,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2498,7 +2505,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2506,11 +2513,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2520,7 +2527,7 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2531,7 +2538,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2539,7 +2546,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2547,7 +2554,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2555,7 +2562,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2563,7 +2570,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>296</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2571,7 +2578,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2579,7 +2586,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2587,7 +2594,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2595,7 +2602,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2603,7 +2610,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2611,11 +2618,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2625,7 +2632,7 @@
   <x:sheetPr codeName="Sheet17"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2636,7 +2643,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2644,7 +2651,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2652,7 +2659,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2660,7 +2667,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>277</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2668,7 +2675,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>298</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2676,7 +2683,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2684,7 +2691,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2692,7 +2699,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2700,7 +2707,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>300</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2708,7 +2715,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>299</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2716,11 +2723,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2730,7 +2737,7 @@
   <x:sheetPr codeName="Sheet18"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2741,7 +2748,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2749,7 +2756,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2757,7 +2764,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2765,7 +2772,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2773,7 +2780,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2781,11 +2788,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2795,7 +2802,7 @@
   <x:sheetPr codeName="Sheet19"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2806,7 +2813,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2814,7 +2821,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2822,7 +2829,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>263</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2830,7 +2837,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2838,7 +2845,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2846,11 +2853,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2860,7 +2867,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2871,7 +2878,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2879,7 +2886,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2887,7 +2894,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2895,7 +2902,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2903,7 +2910,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2911,7 +2918,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2919,7 +2926,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2927,7 +2934,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2935,7 +2942,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2943,7 +2950,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2951,11 +2958,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2965,7 +2972,7 @@
   <x:sheetPr codeName="Sheet20"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2976,7 +2983,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2984,7 +2991,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2992,7 +2999,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>301</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3000,7 +3007,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3008,7 +3015,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>297</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3016,11 +3023,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3030,7 +3037,7 @@
   <x:sheetPr codeName="Sheet21"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3041,7 +3048,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>308</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3049,7 +3056,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3057,7 +3064,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3065,7 +3072,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3073,7 +3080,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3081,11 +3088,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3095,7 +3102,7 @@
   <x:sheetPr codeName="Sheet22"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3106,7 +3113,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3114,7 +3121,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3122,7 +3129,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3130,7 +3137,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3138,7 +3145,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3146,11 +3153,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3160,7 +3167,7 @@
   <x:sheetPr codeName="Sheet23"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3171,7 +3178,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3179,7 +3186,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3187,7 +3194,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3195,7 +3202,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3203,7 +3210,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3211,11 +3218,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3225,7 +3232,7 @@
   <x:sheetPr codeName="Sheet24"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3236,7 +3243,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3244,7 +3251,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>261</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3252,7 +3259,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3260,7 +3267,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3268,7 +3275,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>305</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3276,11 +3283,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>304</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3290,7 +3297,7 @@
   <x:sheetPr codeName="Sheet25"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3301,7 +3308,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3309,7 +3316,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3317,7 +3324,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3325,7 +3332,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3333,7 +3340,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>284</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3341,11 +3348,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3355,7 +3362,7 @@
   <x:sheetPr codeName="Sheet26"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3366,7 +3373,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3374,7 +3381,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>106</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3382,7 +3389,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>209</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3390,7 +3397,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3398,7 +3405,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3406,11 +3413,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>230</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3420,7 +3427,7 @@
   <x:sheetPr codeName="Sheet27"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3431,7 +3438,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3439,7 +3446,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3447,7 +3454,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3455,7 +3462,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3463,7 +3470,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3471,7 +3478,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3479,7 +3486,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3487,7 +3494,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3495,7 +3502,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3503,7 +3510,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3511,11 +3518,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3525,7 +3532,7 @@
   <x:sheetPr codeName="Sheet28"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3536,7 +3543,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3544,7 +3551,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3552,7 +3559,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3560,7 +3567,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3568,7 +3575,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3576,11 +3583,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3590,7 +3597,7 @@
   <x:sheetPr codeName="Sheet29"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3601,7 +3608,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>306</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3609,7 +3616,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3617,7 +3624,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3625,7 +3632,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3633,7 +3640,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3641,11 +3648,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>302</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3655,7 +3662,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3666,7 +3673,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3674,7 +3681,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3682,7 +3689,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3690,7 +3697,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3698,7 +3705,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>243</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3706,7 +3713,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3714,7 +3721,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3722,7 +3729,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3730,7 +3737,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3738,7 +3745,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3746,11 +3753,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3760,7 +3767,7 @@
   <x:sheetPr codeName="Sheet30"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3771,7 +3778,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>303</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3779,7 +3786,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3787,7 +3794,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3795,7 +3802,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3803,7 +3810,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3811,11 +3818,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3825,7 +3832,7 @@
   <x:sheetPr codeName="Sheet31"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3836,7 +3843,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3844,7 +3851,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3852,7 +3859,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3860,7 +3867,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3868,7 +3875,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3876,11 +3883,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3890,7 +3897,7 @@
   <x:sheetPr codeName="Sheet32"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3901,7 +3908,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3909,7 +3916,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3917,7 +3924,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3925,7 +3932,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3933,7 +3940,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3941,11 +3948,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3955,7 +3962,7 @@
   <x:sheetPr codeName="Sheet33"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3966,7 +3973,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3974,7 +3981,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3982,7 +3989,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3990,7 +3997,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3998,7 +4005,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4006,11 +4013,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>309</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4020,7 +4027,7 @@
   <x:sheetPr codeName="Sheet34"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4031,7 +4038,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4039,7 +4046,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4047,7 +4054,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>281</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4055,7 +4062,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4063,7 +4070,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4071,11 +4078,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4085,7 +4092,7 @@
   <x:sheetPr codeName="Sheet35"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4096,7 +4103,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4104,7 +4111,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4112,7 +4119,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4120,7 +4127,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4128,7 +4135,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4136,11 +4143,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>310</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4150,7 +4157,7 @@
   <x:sheetPr codeName="Sheet36"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4161,7 +4168,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4169,7 +4176,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4177,7 +4184,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4185,7 +4192,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4193,7 +4200,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4201,11 +4208,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>293</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4215,8 +4222,8 @@
   <x:sheetPr codeName="Sheet37"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="C10" activeCellId="0" sqref="A1:XFD1048576"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -4226,7 +4233,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4234,7 +4241,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4242,7 +4249,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4250,7 +4257,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4258,7 +4265,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4266,7 +4273,75 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet38"/>
+  <x:dimension ref="A1:B6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="1" max="16384" width="9.00390625" style="4"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A1" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A3" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A4" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A5" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A6" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>316</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4280,7 +4355,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4291,7 +4366,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4299,7 +4374,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4307,7 +4382,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4315,7 +4390,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4323,7 +4398,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4331,7 +4406,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4339,7 +4414,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4347,7 +4422,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4355,7 +4430,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4363,7 +4438,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4371,11 +4446,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4385,7 +4460,7 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4396,7 +4471,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4404,7 +4479,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4412,7 +4487,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4420,7 +4495,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4428,7 +4503,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4436,7 +4511,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4444,7 +4519,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4452,7 +4527,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4460,7 +4535,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4468,7 +4543,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4476,11 +4551,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4490,7 +4565,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4501,7 +4576,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4509,7 +4584,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4517,7 +4592,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4525,7 +4600,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4533,7 +4608,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4541,7 +4616,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4549,7 +4624,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4557,7 +4632,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4565,7 +4640,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4573,7 +4648,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4581,11 +4656,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4595,7 +4670,7 @@
   <x:sheetPr codeName="Sheet7"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4606,7 +4681,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4614,7 +4689,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4622,7 +4697,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4630,7 +4705,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4638,7 +4713,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4646,7 +4721,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4654,7 +4729,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4662,7 +4737,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4670,7 +4745,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>282</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4678,7 +4753,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>283</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4686,11 +4761,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>282</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4700,7 +4775,7 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4711,7 +4786,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4719,7 +4794,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4727,7 +4802,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4735,7 +4810,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4743,7 +4818,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4751,7 +4826,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4759,7 +4834,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4767,7 +4842,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4775,7 +4850,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4783,7 +4858,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>228</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4791,11 +4866,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4805,7 +4880,7 @@
   <x:sheetPr codeName="Sheet9"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4816,7 +4891,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4824,7 +4899,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4832,7 +4907,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4840,7 +4915,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4848,7 +4923,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4856,7 +4931,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4864,7 +4939,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>247</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4872,7 +4947,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4880,7 +4955,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4888,7 +4963,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4896,11 +4971,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/MGLG/table.xlsx
+++ b/MGLG/table.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polks\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polks\Desktop\맛돈 서버\trpgbot\MGLG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500" activeTab="37"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500" activeTab="38"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="장면" sheetId="1" r:id="rId4"/>
@@ -50,13 +50,197 @@
     <x:sheet name="운명변전불가사의" sheetId="36" r:id="rId39"/>
     <x:sheet name="운명변전코믹" sheetId="37" r:id="rId40"/>
     <x:sheet name="펌블" sheetId="38" r:id="rId41"/>
+    <x:sheet name="상태이상" sheetId="39" r:id="rId42"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="323">
+  <x:si>
+    <x:t>저녁, 녹슨 선로, 그 앞쪽까지 대량의 해골이 아무렇게나 굴러다니고 있다. 허무 빙의자가 하나 나타나 덤벼든다. 마법전을 개시한다. 2라운드가 경과할 때까지는 낮 이후의 라운드는 밤으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매우 혼잡한 시장. 형형색색의 식료품이나 일용품을 비롯해서 환수의 눈알이나 만드라고라의 뿌리 같은 마법 촉매까지 팔고 있다. 이 장면에 등장한 PC는 각자 한 번씩 공적점이나 마화 1점을 소비해서 원하는 마소를 2점 획득할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>석제 타일이 깔려 있는 텅 빈 방. 바닥에 그린 마법진이 묘하게 기분 나쁜 빛을 내고 있다. 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 그 마법진을 지구로 귀환하는 마법문으로 사용할 수 있다. 판정에 실패하면 마법문에서 나타난 미지의 괴물에게 습격받아 이 장면에 등장한 PC 전원의 마력이 1D6점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>복잡한 뒷골목. 기묘한 이종족들로 구성된 도적단의 습격을 받는다. 《우레》로 판정한다. 판정에 실패하면 마력을 2점 감소하든지, 아니면 마법에 충전한 마소가 2점 이상 있을 경우 그것을 감소하든지 선택해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>닌자. 그 인물은 사실 당신을 죽이라는 사명을 띤 닌자다. 데이터는 〈닌자〉(p177)를 사용한다. GM은 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용한 시립 도서관 , 천장 이 높은 건물 의 벽 전체 를 책꽂이 가 빈틈 없이 메우고 있다. 주위 에서는 책 의 페이지를 넘기는 소리 만 이 울려 퍼진다.장면 플레이어 가 마법사 라면 자기 영역의 마소가 1점 발생한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당신의 눈앞 에 보이지 않는 적이 나타난다.너 같은 걸 상대 할 때가 아닌데 ... 무작위 로 특기 1 개 를 선택한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소 가 1 점 발생 한다. 실패 했을 경우 , 마법사 라면 무작위로 한 가지 상태 이상 에 걸린다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우자의 세계에서 일어난 사건을 마법으로 몰래 해결한다. 그 기적적인 결말이 동영상 사이트에서 입소문을 탄다. 이 장면에 등장한 PC 중 한 명은 《희망》으로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학생이 뭔가 마법을 보여달라고 청한다. 꿈 영역에서 무작위로 특기 하나를 선택한다. 이 장면에등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 불운 상태이상에 걸린다. 성공하면,「꿈」 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 폐허가 된 농촌 근처에서 맛있어 보이는 과일을 발견한다. 《대지》로 판정해서 성공하면 마력이 2점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
+  </x:si>
   <x:si>
     <x:t>인파로 북적이는 길거리. 건너편에서 당신과 쏙 빼닮은 인물이 걸어온다. 저것은 이 세계의 당신 자신일까? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
@@ -64,691 +248,760 @@
     <x:t>어둠 속 에서 사악한 존재 가 태동 한다.이대로는 사건 이 더욱 심각 해지고 말 것이다.무작위로 특기 1개를 선택 한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소가 1점 발생한다. 실패 했을 경우 , 닌자 라면 1 점 의 사격 전 대미지 를 입고 , 봉마인이라면 광기를 1장 획득하고 , 마법사라면 운명 변전표를 사용 한다 .</x:t>
   </x:si>
   <x:si>
-    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>닌자. 그 인물은 사실 당신을 죽이라는 사명을 띤 닌자다. 데이터는 〈닌자〉(p177)를 사용한다. GM은 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>복잡한 뒷골목. 기묘한 이종족들로 구성된 도적단의 습격을 받는다. 《우레》로 판정한다. 판정에 실패하면 마력을 2점 감소하든지, 아니면 마법에 충전한 마소가 2점 이상 있을 경우 그것을 감소하든지 선택해야 한다.</x:t>
+    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘도 시끌벅적한 아오 자메 거리.취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨 가며 걷고 있다.장면 플레이어가 마법사라면 어둠 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
     <x:t>세계 법칙 「밤 축제」. 별빛이나 제등을 조명 삼아 끝없는 축제가 계속된다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 【치료】 속주를 사용했을 때 소비한 마소 1점당 2점씩의 마력을 회복할 수 있다.</x:t>
   </x:si>
   <x:si>
+    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>패자는 말의 파편으로 변해가고, 승자는 거기에서 미래의 운명을 읽어낸다. 승자는 「사건 표」를 사용한 후, 그 결과를 기록해둔다. 그 후, 그 세션 중에 연 드라마 장면에, 같은 장면에 등장한 캐릭터 한 명을 골라서 한 번만 해당 결과를 적용할 수 있다.</x:t>
   </x:si>
   <x:si>
+    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 일어나는 바람에, 그 사이클이 끝날 때까지 자신의 행동판정에 -1의 수정이 붙는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는 ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 당신의 마소를 빼앗는다. 충전한 마소를 임의의 조합으로 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 직접 당신을 덮친다. 상태이상 표를 사용하여 정해진 상태이상을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방해. 그 인물은 사실 현재 조사자가 쫓는 〈단장〉을 빼앗으려는 〈서적경〉이었다. 데이터는 〈유혹을 속삭이는 자〉(P174)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"여기 앉아도 될까요?" 당신의 옆자리에 〈서적경〉이 앉는다. 무작위로 특기를 선택해서 판정한다. 그 판정에 성공하면 공개된 핸드아웃 중에서 원하는 것을 골라 해당하는 【비밀】을 공개할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허약. 【공격력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>세계 법칙 「마법문」, 다른 이경으로 통하는 입구가 있다. 「각인에 따른 풍경」에서 |지정한 특기로 판정해서 성공하면 그 마법문을 발견할 수 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
+    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
   </x:si>
   <x:si>
     <x:t>살티레 백화점의 옥상. 바람 이 거세 긴 하지만 , 이곳 이라면 시내 가 훤히 보인다.장면 플레이어 가 마법 사라면 별 마소 가 1 점 발생 한다 .</x:t>
   </x:si>
   <x:si>
-    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>패자는 무수한 빛의 입자로 변해가고, 승자는 거기에서 마소를 얻는다. 승자는 아무거나 마소를 2점 획득한다(자신의 입회인에게 넘겨줄 수도 있다).</x:t>
   </x:si>
   <x:si>
-    <x:t>마법재액이 당신의 마소를 빼앗는다. 충전한 마소를 임의의 조합으로 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매우 혼잡한 시장. 형형색색의 식료품이나 일용품을 비롯해서 환수의 눈알이나 만드라고라의 뿌리 같은 마법 촉매까지 팔고 있다. 이 장면에 등장한 PC는 각자 한 번씩 공적점이나 마화 1점을 소비해서 원하는 마소를 2점 획득할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저녁, 녹슨 선로, 그 앞쪽까지 대량의 해골이 아무렇게나 굴러다니고 있다. 허무 빙의자가 하나 나타나 덤벼든다. 마법전을 개시한다. 2라운드가 경과할 때까지는 낮 이후의 라운드는 밤으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다</x:t>
+    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 안에 그윽하게 풍겨나 는 커피 냄새.cafe attic 에서 조용히 커피 잔 을 기울이며 생각 에 잠긴다. 장면 플레이어 가 마법사 라면 노래 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주위에서 〈단장〉이 일으킨 마법 재액이 발생한다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 그 장면에 원하는 마소가 1점 발생한다. 실패하면 「운명 변전 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통로 건너편에 문과 간판이 있다. 간판의 문자를 읽어보니 여관이라 는 의미다. 이 장면에 등장한 PC 전원은 한 번만 공적점이나 마화 1점을 소비해서 조율을 1회 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초등학교 앞을 지나간다. 음악실 창 너머로 낯선 음악가의 초상화가 보인다. 노래 영역에서 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「봉인」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막다른 골목. 눈앞에는 왠지 커다란 상자가 있다. 이 씬에 등장한 PC 중 한 사람은 《수수께끼》로 판정할 수 있다. 성공하면 상자 안에서 프라이즈를 발견한다. 「프라이즈 표(『대몽소멸』 228페이지 수록/대형판 룰북 79페이지)」를 한 번 사용할 수 있다. 실패하면 함정이 발동한다. 상자는 폭발하고, 이 신에 등장한 PC 전원의 【마력】이 1점 감 소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가출, 지금 자신이 있는 장소를 불편하게 여겨 실된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법의 제어에 실패한다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시노노메 신사 의 경내.먹이 를 찾아 모여 든 비둘기 들이 소란 을 피우고 있는 것 같은데 .... … ? 장면 플레이어가 마법사라면 짐승 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 폭발음과 함께 어딘가로 사라지고, 주위에는 유황 냄새 같은 냄새만이 남는다. 승자는 그 세션 중에 한 번만 원하는 타이밍에 상태이상, 한 종류를 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의점 , 에브리 시노노메점. BGM 이 흘러 나오는 점 내에 어느새 당신 혼자 남아 있다.장면 플레이어 가 마법사라면 꿈 마소 가 1 점 발생 한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예배당. 죽어서도 여전히 기도를 올리는 영혼이 말 없이 무릎을 꿇고 있다. 이 장면에 등장한 PC 중 한 명은 《기도》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 불운 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>드러난 피부와 뜨거운 숨결이 가득한 장소, 무수한 남녀가 정신 없이 육욕을 탐하고 있다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하고, 실패하면 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새하얀 빛에 휩싸인 식당, 호화로운 식사와 맛있는 술을 끝없이 대접받는다. 이 장면에 등장한 PC 중 한 명은 《살》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 당신의 앵커를 덮친다. 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤길. 뒤에서 검은 무언가가 아른거리며 쫓아온다. 명확한 모습도 알아볼 수 없건만, 굉장히 무섭다. 무작위로 특기 하나를 선택한다. 이기 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소 2점을 획득할 수 있다. 판정에 실패하면 아른거리는 형체의 검은 무언가가 자신의 앵커 앞에 나타난다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새가 지저귀는 소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정한 누군가를 벌해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데 … ? 책상 , 의자 , 서류함 따위 가 주위 에 널려 있다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신 이외의 특정한 누군가를 도와달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신이 잃어버린 무언가를 되찾아달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살랑거리는 풀에서 부드러운 풀내음이 난다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
   </x:si>
   <x:si>
     <x:t>단장. 그 인물에게는 이번 사건과 관계 없는 〈단장〉이 빙의되어 있었다. 데이터는 〈열락〉(P173)을 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>백은 갑옷을 입은 기사가 나타난다. 기사는 일대일 결투를 신청했다. 장면에 등장한 PC 중에서 대표 한 명을 선택한다. 대표는 「노래」 영역에서 무작위 로 특기 하나를 선택해서 판정해야 한다. 실패하면, 대표가 5점의 대미지를 입는다.</x:t>
   </x:si>
   <x:si>
-    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용한 시립 도서관 , 천장 이 높은 건물 의 벽 전체 를 책꽂이 가 빈틈 없이 메우고 있다. 주위 에서는 책 의 페이지를 넘기는 소리 만 이 울려 퍼진다.장면 플레이어 가 마법사 라면 자기 영역의 마소가 1점 발생한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당신의 눈앞 에 보이지 않는 적이 나타난다.너 같은 걸 상대 할 때가 아닌데 ... 무작위 로 특기 1 개 를 선택한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소 가 1 점 발생 한다. 실패 했을 경우 , 마법사 라면 무작위로 한 가지 상태 이상 에 걸린다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학생이 뭔가 마법을 보여달라고 청한다. 꿈 영역에서 무작위로 특기 하나를 선택한다. 이 장면에등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 불운 상태이상에 걸린다. 성공하면,「꿈」 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우자의 세계에서 일어난 사건을 마법으로 몰래 해결한다. 그 기적적인 결말이 동영상 사이트에서 입소문을 탄다. 이 장면에 등장한 PC 중 한 명은 《희망》으로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방해. 그 인물은 사실 현재 조사자가 쫓는 〈단장〉을 빼앗으려는 〈서적경〉이었다. 데이터는 〈유혹을 속삭이는 자〉(P174)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데 … ? 책상 , 의자 , 서류함 따위 가 주위 에 널려 있다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
+    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
   </x:si>
   <x:si>
     <x:t>탑 외벽에 설치된 나선 계단 위. 강풍이 불어닥치고 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>낮. 폐허가 된 농촌 근처에서 맛있어 보이는 과일을 발견한다. 《대지》로 판정해서 성공하면 마력이 2점 회복한다.</x:t>
+    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
   </x:si>
   <x:si>
     <x:t>밤의 길거리를 걷는다. 저 멀리 집집마다 따스하게 빛나는 조명이 보인다. 그 장면에 노래 마소가 1점 발생한다.</x:t>
   </x:si>
   <x:si>
+    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>인파로 북적이는 광장, 축제라도 열었나? 누군가가 부르는 소리가 들린다. 그 장면에 짐승 마소가 1점 발생한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>유럽을 돌아본다. 멋진 거리의 풍경과 예술, 아름다운 자연, 특산품. 가끔은 여행 기분을 내는 것도 나쁘지 않다.</x:t>
   </x:si>
   <x:si>
-    <x:t>가게 안에 그윽하게 풍겨나 는 커피 냄새.cafe attic 에서 조용히 커피 잔 을 기울이며 생각 에 잠긴다. 장면 플레이어 가 마법사 라면 노래 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>석제 타일이 깔려 있는 텅 빈 방. 바닥에 그린 마법진이 묘하게 기분 나쁜 빛을 내고 있다. 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 그 마법진을 지구로 귀환하는 마법문으로 사용할 수 있다. 판정에 실패하면 마법문에서 나타난 미지의 괴물에게 습격받아 이 장면에 등장한 PC 전원의 마력이 1D6점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는 ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>막다른 골목. 눈앞에는 왠지 커다란 상자가 있다. 이 씬에 등장한 PC 중 한 사람은 《수수께끼》로 판정할 수 있다. 성공하면 상자 안에서 프라이즈를 발견한다. 「프라이즈 표(『대몽소멸』 228페이지 수록/대형판 룰북 79페이지)」를 한 번 사용할 수 있다. 실패하면 함정이 발동한다. 상자는 폭발하고, 이 신에 등장한 PC 전원의 【마력】이 1점 감 소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가출, 지금 자신이 있는 장소를 불편하게 여겨 실된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"여기 앉아도 될까요?" 당신의 옆자리에 〈서적경〉이 앉는다. 무작위로 특기를 선택해서 판정한다. 그 판정에 성공하면 공개된 핸드아웃 중에서 원하는 것을 골라 해당하는 【비밀】을 공개할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤길. 뒤에서 검은 무언가가 아른거리며 쫓아온다. 명확한 모습도 알아볼 수 없건만, 굉장히 무섭다. 무작위로 특기 하나를 선택한다. 이기 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소 2점을 획득할 수 있다. 판정에 실패하면 아른거리는 형체의 검은 무언가가 자신의 앵커 앞에 나타난다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>시노노메 신사 의 경내.먹이 를 찾아 모여 든 비둘기 들이 소란 을 피우고 있는 것 같은데 .... … ? 장면 플레이어가 마법사라면 짐승 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 폭발음과 함께 어딘가로 사라지고, 주위에는 유황 냄새 같은 냄새만이 남는다. 승자는 그 세션 중에 한 번만 원하는 타이밍에 상태이상, 한 종류를 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
+    <x:t>불운. 무작위로 특기 하나를 골라 그 특기의 체크칸에 체크한다. 그 특기를 사용할 수 없게 되며, 그 분야의 특기가 지정특기인 판정을 할 때는 -1의 수정이 붙는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
   </x:si>
   <x:si>
     <x:t>갑작 스러운 비.우산 을 챙기지 못한 학생들 은 키타 로쿠 분기 상점가 의 아케이드 거리 로 달려 간다. 장면 플레이어 가 마법사 라면 힘 마소 가 1 점 발생 한다 .</x:t>
   </x:si>
   <x:si>
-    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>기숙사 복도, 거기 누구죠?」 사감 시그리드가 불러 세웠다. 이 장면에 등장한 PC는 자유로 판정한다. 실패하면 이 장면에서 시도하는 모든 판정에 1의 수정을 적용한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의점 , 에브리 시노노메점. BGM 이 흘러 나오는 점 내에 어느새 당신 혼자 남아 있다.장면 플레이어 가 마법사라면 꿈 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새가 지저귀는 소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
+    <x:t xml:space="preserve">파괴된 서가가 쌓여 만들어진 미로 같은 통로가 계속된다. 이 앞에는 무엇이 있는 걸까. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천장이 높은 복도, 두꺼운 문 너머에서 수업을 하는 강사의 목소리가 희미하게 들려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤에 거리를 돌아다닌다. 잘 아는 풍경인데도 어딘가 다르다는 위화감을 떨칠 수가 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·열람실. 몇 명의 마법사들이 쉬고 있다. 여기라면 여러 이야기를 들을 수 있을 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
   </x:si>
   <x:si>
     <x:t>꿈 속. 먼 과거의 풍경이 당신의 앞에 나타난다. 그 장면에 꿈 마소가 1점 발생한다.</x:t>
@@ -757,256 +1010,22 @@
     <x:t>평범하기 그지없는 평화로운 풍경. 하지만 그런 일상의 배후에서 마법 재액의 그림자를 느낀다.</x:t>
   </x:si>
   <x:si>
-    <x:t>특정한 누군가를 벌해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘도 시끌벅적한 아오 자메 거리.취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨 가며 걷고 있다.장면 플레이어가 마법사라면 어둠 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주위에서 〈단장〉이 일으킨 마법 재액이 발생한다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 그 장면에 원하는 마소가 1점 발생한다. 실패하면 「운명 변전 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통로 건너편에 문과 간판이 있다. 간판의 문자를 읽어보니 여관이라 는 의미다. 이 장면에 등장한 PC 전원은 한 번만 공적점이나 마화 1점을 소비해서 조율을 1회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초등학교 앞을 지나간다. 음악실 창 너머로 낯선 음악가의 초상화가 보인다. 노래 영역에서 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「봉인」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신이 잃어버린 무언가를 되찾아달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신 이외의 특정한 누군가를 도와달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살랑거리는 풀에서 부드러운 풀내음이 난다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>드러난 피부와 뜨거운 숨결이 가득한 장소, 무수한 남녀가 정신 없이 육욕을 탐하고 있다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하고, 실패하면 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새하얀 빛에 휩싸인 식당, 호화로운 식사와 맛있는 술을 끝없이 대접받는다. 이 장면에 등장한 PC 중 한 명은 《살》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예배당. 죽어서도 여전히 기도를 올리는 영혼이 말 없이 무릎을 꿇고 있다. 이 장면에 등장한 PC 중 한 명은 《기도》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 불운 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천장이 높은 복도, 두꺼운 문 너머에서 수업을 하는 강사의 목소리가 희미하게 들려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>눈앞에 아름다운 흑룡이 나타났다. 학원장 자날파토스다. 대체 무슨 말을 하러 나타난 걸까?</x:t>
   </x:si>
   <x:si>
-    <x:t>전·열람실. 몇 명의 마법사들이 쉬고 있다. 여기라면 여러 이야기를 들을 수 있을 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">파괴된 서가가 쌓여 만들어진 미로 같은 통로가 계속된다. 이 앞에는 무엇이 있는 걸까. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤에 거리를 돌아다닌다. 잘 아는 풍경인데도 어딘가 다르다는 위화감을 떨칠 수가 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 당신의 앵커를 덮친다. 자신에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 직접 당신을 덮친다. 상태이상 표를 사용하여 정해진 상태이상을 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법의 제어에 실패한다. 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 일어나는 바람에, 그 사이클이 끝날 때까지 자신의 행동판정에 -1의 수정이 붙는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴유, 큰일날 뻔했다. 아무 일도 일어나지 않는다.</x:t>
+    <x:t>타짐. 마법전 동안 각 라운드가 종료할 때 자신의 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봉인. 자신이 습득한 장비 타입 이외의 마법 중에서 무작위로 하나 선택한다. 선택한 마법의 체크칸에 체크한다. 그 마법을 사용하려면 【마력】을 2점 소비해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병마. 【방어력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차단. 【근원력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴우, 큰일날 뻔했다. 아무 일도 일어나지 않는다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1792,7 +1811,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="C18" activeCellId="0" sqref="C18:C18"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1803,7 +1822,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1811,7 +1830,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1819,7 +1838,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1827,7 +1846,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>265</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1835,7 +1854,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1843,7 +1862,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1851,7 +1870,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -1859,7 +1878,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1867,7 +1886,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1875,7 +1894,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -1883,11 +1902,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1897,7 +1916,7 @@
   <x:sheetPr codeName="Sheet10"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1908,7 +1927,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1916,7 +1935,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1924,7 +1943,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1932,7 +1951,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1940,7 +1959,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1948,7 +1967,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1964,7 +1983,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1972,7 +1991,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1980,7 +1999,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -1988,11 +2007,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2002,7 +2021,7 @@
   <x:sheetPr codeName="Sheet11"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2013,7 +2032,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2021,7 +2040,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2029,7 +2048,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2037,7 +2056,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2045,7 +2064,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2053,7 +2072,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2061,7 +2080,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2069,7 +2088,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2077,7 +2096,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2085,7 +2104,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2093,11 +2112,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2107,7 +2126,7 @@
   <x:sheetPr codeName="Sheet12"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2118,7 +2137,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2126,7 +2145,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2134,7 +2153,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2142,7 +2161,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>297</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2150,7 +2169,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2158,7 +2177,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2166,7 +2185,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>298</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2174,7 +2193,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2182,7 +2201,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2190,7 +2209,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2198,11 +2217,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2212,7 +2231,7 @@
   <x:sheetPr codeName="Sheet13"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2223,7 +2242,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2231,7 +2250,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2239,7 +2258,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2247,7 +2266,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2255,7 +2274,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2263,7 +2282,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2271,7 +2290,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2279,7 +2298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2287,7 +2306,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2295,7 +2314,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2303,11 +2322,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2317,7 +2336,7 @@
   <x:sheetPr codeName="Sheet14"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2328,7 +2347,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2336,7 +2355,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2352,7 +2371,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2360,7 +2379,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>301</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2368,7 +2387,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2376,7 +2395,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2384,7 +2403,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2392,7 +2411,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2400,7 +2419,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2408,11 +2427,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2422,7 +2441,7 @@
   <x:sheetPr codeName="Sheet15"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2433,7 +2452,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2441,7 +2460,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2449,7 +2468,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2457,7 +2476,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2465,7 +2484,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2473,7 +2492,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2481,7 +2500,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2489,7 +2508,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2497,7 +2516,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>293</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2505,7 +2524,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2513,11 +2532,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2527,7 +2546,7 @@
   <x:sheetPr codeName="Sheet16"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2538,7 +2557,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2546,7 +2565,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2554,7 +2573,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2562,7 +2581,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2570,7 +2589,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2578,7 +2597,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2586,7 +2605,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>310</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2594,7 +2613,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2602,7 +2621,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2610,7 +2629,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2618,11 +2637,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2632,7 +2651,7 @@
   <x:sheetPr codeName="Sheet17"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2643,7 +2662,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2651,7 +2670,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2659,7 +2678,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2667,7 +2686,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2675,7 +2694,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2683,7 +2702,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2691,7 +2710,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2699,7 +2718,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2707,7 +2726,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2715,7 +2734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2723,11 +2742,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2737,7 +2756,7 @@
   <x:sheetPr codeName="Sheet18"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2748,7 +2767,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2756,7 +2775,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2764,7 +2783,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2772,7 +2791,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2780,7 +2799,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2788,11 +2807,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2802,7 +2821,7 @@
   <x:sheetPr codeName="Sheet19"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2813,7 +2832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2821,7 +2840,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2829,7 +2848,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2837,7 +2856,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>302</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2845,7 +2864,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2853,11 +2872,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>300</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2867,7 +2886,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2878,7 +2897,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>296</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2886,7 +2905,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2894,7 +2913,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2902,7 +2921,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2910,7 +2929,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2918,7 +2937,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2926,7 +2945,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2934,7 +2953,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2942,7 +2961,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2950,7 +2969,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2958,11 +2977,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2972,7 +2991,7 @@
   <x:sheetPr codeName="Sheet20"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2983,7 +3002,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2991,7 +3010,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2999,7 +3018,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3007,7 +3026,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3015,7 +3034,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3023,11 +3042,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3037,7 +3056,7 @@
   <x:sheetPr codeName="Sheet21"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3048,7 +3067,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3056,7 +3075,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3064,7 +3083,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>294</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3072,7 +3091,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3080,7 +3099,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3088,11 +3107,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3102,7 +3121,7 @@
   <x:sheetPr codeName="Sheet22"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3113,7 +3132,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3121,7 +3140,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3129,7 +3148,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3137,7 +3156,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3145,7 +3164,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3153,11 +3172,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3167,7 +3186,7 @@
   <x:sheetPr codeName="Sheet23"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3178,7 +3197,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3186,7 +3205,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3194,7 +3213,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3202,7 +3221,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3210,7 +3229,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>303</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3218,11 +3237,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3232,7 +3251,7 @@
   <x:sheetPr codeName="Sheet24"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3243,7 +3262,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3251,7 +3270,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3259,7 +3278,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3267,7 +3286,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3275,7 +3294,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3283,11 +3302,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3297,7 +3316,7 @@
   <x:sheetPr codeName="Sheet25"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3308,7 +3327,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3316,7 +3335,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3324,7 +3343,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3332,7 +3351,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3340,7 +3359,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3348,11 +3367,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3362,7 +3381,7 @@
   <x:sheetPr codeName="Sheet26"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3373,7 +3392,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>277</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3381,7 +3400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>162</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3389,7 +3408,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3397,7 +3416,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>275</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3405,7 +3424,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3413,11 +3432,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>261</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3427,7 +3446,7 @@
   <x:sheetPr codeName="Sheet27"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3438,7 +3457,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3446,7 +3465,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3454,7 +3473,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3462,7 +3481,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3470,7 +3489,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3478,7 +3497,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3486,7 +3505,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3494,7 +3513,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3502,7 +3521,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3510,7 +3529,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3518,11 +3537,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3532,7 +3551,7 @@
   <x:sheetPr codeName="Sheet28"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3543,7 +3562,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3551,7 +3570,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3559,7 +3578,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3567,7 +3586,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3575,7 +3594,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3583,11 +3602,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3597,7 +3616,7 @@
   <x:sheetPr codeName="Sheet29"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3608,7 +3627,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3616,7 +3635,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3624,7 +3643,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3632,7 +3651,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3640,7 +3659,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3648,11 +3667,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>299</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3662,7 +3681,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3673,7 +3692,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3681,7 +3700,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3689,7 +3708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3697,7 +3716,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3705,7 +3724,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3713,7 +3732,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3721,7 +3740,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3729,7 +3748,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3737,7 +3756,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3745,7 +3764,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3753,11 +3772,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3767,7 +3786,7 @@
   <x:sheetPr codeName="Sheet30"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3778,7 +3797,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3786,7 +3805,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3794,7 +3813,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3802,7 +3821,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3810,7 +3829,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3818,11 +3837,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3832,7 +3851,7 @@
   <x:sheetPr codeName="Sheet31"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3843,7 +3862,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>282</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3859,7 +3878,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3867,7 +3886,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3875,7 +3894,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3883,11 +3902,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3897,7 +3916,7 @@
   <x:sheetPr codeName="Sheet32"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3908,7 +3927,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3916,7 +3935,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3924,7 +3943,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3932,7 +3951,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3940,7 +3959,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>228</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3948,11 +3967,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3962,7 +3981,7 @@
   <x:sheetPr codeName="Sheet33"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3973,7 +3992,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3981,7 +4000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3989,7 +4008,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>243</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3997,7 +4016,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4005,7 +4024,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4013,11 +4032,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>262</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4027,7 +4046,7 @@
   <x:sheetPr codeName="Sheet34"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4038,7 +4057,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4046,7 +4065,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4054,7 +4073,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4062,7 +4081,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4070,7 +4089,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>284</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4078,11 +4097,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4092,7 +4111,7 @@
   <x:sheetPr codeName="Sheet35"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4103,7 +4122,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>281</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4111,7 +4130,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4119,7 +4138,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4127,7 +4146,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4135,7 +4154,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4143,11 +4162,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4157,7 +4176,7 @@
   <x:sheetPr codeName="Sheet36"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4168,7 +4187,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4176,7 +4195,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>263</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4184,7 +4203,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4192,7 +4211,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4200,7 +4219,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4208,11 +4227,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4222,7 +4241,7 @@
   <x:sheetPr codeName="Sheet37"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="C10" activeCellId="0" sqref="A1:XFD1048576"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4233,7 +4252,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4241,7 +4260,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4249,7 +4268,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4257,7 +4276,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>283</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4265,7 +4284,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4273,11 +4292,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4287,8 +4306,8 @@
   <x:sheetPr codeName="Sheet38"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -4301,7 +4320,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>312</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4309,7 +4328,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4317,7 +4336,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>314</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4325,7 +4344,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>315</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4333,7 +4352,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>313</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4341,11 +4360,79 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>316</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet39"/>
+  <x:dimension ref="A1:B6"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="1" max="16384" width="9.00390625" style="4"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A1" s="1">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A2" s="1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A3" s="1">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A4" s="1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A5" s="1">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2" ht="17.14999999999999857891">
+      <x:c r="A6" s="1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4355,7 +4442,7 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4366,7 +4453,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4374,7 +4461,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4382,7 +4469,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4390,7 +4477,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4398,7 +4485,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4406,7 +4493,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4414,7 +4501,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4422,7 +4509,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4430,7 +4517,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4438,7 +4525,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4446,11 +4533,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4460,7 +4547,7 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4471,7 +4558,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4479,7 +4566,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4487,7 +4574,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4495,7 +4582,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4503,7 +4590,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4511,7 +4598,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4519,7 +4606,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4527,7 +4614,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4535,7 +4622,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>247</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4543,7 +4630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4551,11 +4638,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4565,7 +4652,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4576,7 +4663,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4584,7 +4671,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4592,7 +4679,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4600,7 +4687,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4608,7 +4695,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4616,7 +4703,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4624,7 +4711,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4632,7 +4719,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4640,7 +4727,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4648,7 +4735,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>295</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4656,11 +4743,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4670,7 +4757,7 @@
   <x:sheetPr codeName="Sheet7"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4681,7 +4768,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>308</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4689,7 +4776,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4697,7 +4784,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4705,7 +4792,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4713,7 +4800,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>305</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4721,7 +4808,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4729,7 +4816,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4737,7 +4824,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4745,7 +4832,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4753,7 +4840,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4761,11 +4848,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4775,7 +4862,7 @@
   <x:sheetPr codeName="Sheet8"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4786,7 +4873,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4794,7 +4881,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4802,7 +4889,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4810,7 +4897,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4818,7 +4905,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4826,7 +4913,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4834,7 +4921,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4842,7 +4929,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4850,7 +4937,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4858,7 +4945,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4866,11 +4953,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4880,7 +4967,7 @@
   <x:sheetPr codeName="Sheet9"/>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4891,7 +4978,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4899,7 +4986,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4907,7 +4994,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4915,7 +5002,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4923,7 +5010,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4931,7 +5018,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4939,7 +5026,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4947,7 +5034,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4955,7 +5042,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4963,7 +5050,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4971,11 +5058,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/MGLG/table.xlsx
+++ b/MGLG/table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500" activeTab="38"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500" activeTab="31"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="장면" sheetId="1" r:id="rId4"/>
@@ -59,46 +59,718 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="323">
   <x:si>
+    <x:t>편의점 , 에브리 시노노메점. BGM이 흘러나오는 점 내에 어느새 당신 혼자 남아있다.장면 플레이어가 마법사라면 꿈 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시노노메 신사의 경내. 먹이를 찾아 모여든 비둘기들이 소란을 피우고 있는 것 같은데……? 장면 플레이어가 마법사라면 짐승 마소가 1점 발생한다 .</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>저녁, 녹슨 선로, 그 앞쪽까지 대량의 해골이 아무렇게나 굴러다니고 있다. 허무 빙의자가 하나 나타나 덤벼든다. 마법전을 개시한다. 2라운드가 경과할 때까지는 낮 이후의 라운드는 밤으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다</x:t>
   </x:si>
   <x:si>
+    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단장. 그 인물에게는 이번 사건과 관계 없는 〈단장〉이 빙의되어 있었다. 데이터는 〈열락〉(P173)을 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>백은 갑옷을 입은 기사가 나타난다. 기사는 일대일 결투를 신청했다. 장면에 등장한 PC 중에서 대표 한 명을 선택한다. 대표는 「노래」 영역에서 무작위 로 특기 하나를 선택해서 판정해야 한다. 실패하면, 대표가 5점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>매우 혼잡한 시장. 형형색색의 식료품이나 일용품을 비롯해서 환수의 눈알이나 만드라고라의 뿌리 같은 마법 촉매까지 팔고 있다. 이 장면에 등장한 PC는 각자 한 번씩 공적점이나 마화 1점을 소비해서 원하는 마소를 2점 획득할 수 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>패자는 무수한 벌레나 작은 동물로 변하고, 승자가 그것을 사역마로 삼는다. 승자는 아무거나 특기(혼의 특기는 제외)를 하나 선택한다. 그 세션 동안 지정 특기가 해당 특기인 【정령 소환】, 【마검 소환】, 【악몽 소환】 중 하나를 습득한다.</x:t>
+    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤에 거리를 돌아다닌다. 잘 아는 풍경인데도 어딘가 다르다는 위화감을 떨칠 수가 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">파괴된 서가가 쌓여 만들어진 미로 같은 통로가 계속된다. 이 앞에는 무엇이 있는 걸까. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>천장이 높은 복도, 두꺼운 문 너머에서 수업을 하는 강사의 목소리가 희미하게 들려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·열람실. 몇 명의 마법사들이 쉬고 있다. 여기라면 여러 이야기를 들을 수 있을 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꿈 속. 먼 과거의 풍경이 당신의 앞에 나타난다. 그 장면에 꿈 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평범하기 그지없는 평화로운 풍경. 하지만 그런 일상의 배후에서 마법 재액의 그림자를 느낀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 빛의 입자로 변해가고, 승자는 거기에서 마소를 얻는다. 승자는 아무거나 마소를 2점 획득한다(자신의 입회인에게 넘겨줄 수도 있다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴우, 큰일날 뻔했다. 아무 일도 일어나지 않는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법의 제어에 실패한다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가출, 지금 자신이 있는 장소를 불편하게 여겨 실된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 당신의 앵커를 덮친다. 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새가 지저귀는 소리가 들린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허약. 【공격력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병마. 【방어력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차단. 【근원력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살랑거리는 풀에서 부드러운 풀내음이 난다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신이 잃어버린 무언가를 되찾아달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신 이외의 특정한 누군가를 도와달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정한 누군가를 벌해달라.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>당신의 눈앞에 보이지 않는 적이 나타난다. 너 같은 걸 상대 할 때가 아닌데… 무작위 로 특기 1 개 를 선택한다. 그 특기로 판정해서 성공했을 경우, 마법사라면 임의의 마소가 1점 발생한다. 실패했을 경우, 마법사라면 무작위로 한가지 상태이상에 걸린다.</x:t>
   </x:si>
   <x:si>
     <x:t>석제 타일이 깔려 있는 텅 빈 방. 바닥에 그린 마법진이 묘하게 기분 나쁜 빛을 내고 있다. 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 그 마법진을 지구로 귀환하는 마법문으로 사용할 수 있다. 판정에 실패하면 마법문에서 나타난 미지의 괴물에게 습격받아 이 장면에 등장한 PC 전원의 마력이 1D6점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>광신. 그 인물은 사실 조사자를 숭배하고 있었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「지배」로 정한다. 그 인물의 【운명】 속성이 「지배」인 동안, 조사자는 그 인물에게 빙의한 〈단장〉에게 마법전을 신청했을 때 자동으로 승리할 수 있다. 단, 조사자가 행동 판정에서 해당하는 【운명】 수치 이하의 눈을 내면 그 판정은 펌블이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하늘을 우러러보며 땅에 엎드리는 우자들. 그곳은 수백 년, 수천 년간 끊임 없이 기도를 바쳐온 성지다. 이 장면에 등장한 PC 중 한 명은 《심연》으로 판정할 수 있다. 성공하면 공개된 핸드아웃 중에서 아무거나 【비밀】을 하나 공개할 수 있다. 실패하면 무작위로 결정한 상태이상 하나에 걸린다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 용이 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정한다. 실패하면 「타짐」 상태이상에 걸린다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠 속에서 무언가가 낮게 으르릉거리는 소리가 들린다. 아무래도 근처에 괴물이 숨어 있는 것 같다. 무사히 잘 지나가야 할 텐데…….. 《정적》으로 판정한다. 실패하면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몸이 시들며 「씨앗」을 떨군다. 하지만 재생하지는 않는다. 땅에 심어주면 종류야 어떻든 식물로서 싹을 틔울 것이다 〈영원〉을 앵커로 두고 있다면 그 앵커를 잃는다. 상흔이 되지는 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행운. 그 인물은 일종의 특이점으로, 매우 운이 좋다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 모든 행동판정에 +1의 수정을 적용한다. 조사자는 이 프라이즈를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페의 테이블, FM 라디오에서는 작년에 해산했을 밴드가 어제 발표한 신곡이 흘러나오고 있다. 이 장면에 등장한 PC 중 한 명은 「시간의 흐름 표」에서 주사위를 한 번 굴려 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>힘을 잃고 쓰러진 정령이 보인다. 이 씬에 등장하고 있는 PC는 한 명만, 랜덤하게 고른 특기로 판정을 행한다. 실패하면 '불운' 변조를 받는다. 성공하면, 그 특기의 정령을 소환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화. 그 인물에게는 조사자가 맺은 운명의 힘을 흡수하는 마법이 걸려 있었다. 이 【비밀】이 공개되면 세션에 등장한 〈단장〉을 조사자의 앵커 수와 같은 수까지 선택한다. 선택한 〈단장〉의 빙의 심도가 1 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 순간에는 아무 일도 일어나지 않는다. 운 좋게 살아남아 〈우자〉로 돌아간 것처럼 보인다. 하지만 일단 잠들면 두 번 다시 눈을 뜨지 못하고 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 직접 당신을 덮친다. 상태이상 표를 사용하여 정해진 상태이상을 받는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 당신의 마소를 빼앗는다. 충전한 마소를 임의의 조합으로 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법재액이 일어나는 바람에, 그 사이클이 끝날 때까지 자신의 행동판정에 -1의 수정이 붙는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>살티레 백화점의 옥상. 바람이 거세긴 하지만 , 이 곳이라면 시내가 훤히 보인다. 장면 플레이어가 마법사라면 별 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초등학교 앞을 지나간다. 음악실 창 너머로 낯선 음악가의 초상화가 보인다. 노래 영역에서 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「봉인」 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통로 건너편에 문과 간판이 있다. 간판의 문자를 읽어보니 여관이라 는 의미다. 이 장면에 등장한 PC 전원은 한 번만 공적점이나 마화 1점을 소비해서 조율을 1회 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주위에서 〈단장〉이 일으킨 마법 재액이 발생한다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 그 장면에 원하는 마소가 1점 발생한다. 실패하면 「운명 변전 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타짐. 마법전 동안 각 라운드가 종료할 때 자신의 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오늘도 시끌벅적한 아오자메 거리. 취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨가며 걷고 있다. 장면 플레이어가 마법사라면 어둠 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
   </x:si>
   <x:si>
     <x:t>복잡한 뒷골목. 기묘한 이종족들로 구성된 도적단의 습격을 받는다. 《우레》로 판정한다. 판정에 실패하면 마력을 2점 감소하든지, 아니면 마법에 충전한 마소가 2점 이상 있을 경우 그것을 감소하든지 선택해야 한다.</x:t>
@@ -107,304 +779,196 @@
     <x:t>닌자. 그 인물은 사실 당신을 죽이라는 사명을 띤 닌자다. 데이터는 〈닌자〉(p177)를 사용한다. GM은 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>금화나 은화, 보석에 왕관 같은 보물이 산처럼 쌓여 있는 방. 파수꾼은 없는 것 같은데...... 이 장면에 등장한 PC 중 한 명은 《황금》으로 판정할 수 있다. 판정에 성공하면 1D6점의 마화나 무작위로 결정한 마소 3점을 획득할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어디로 가는지 알 수 없는 전철 안, 달리 승객은 없는 것 같은데…... 이 장면에 등장한 PC 중 한 명은 《이계》로 판정할 수 있다. 판정에 성공하면 임의의 이경 한 군데로 갈 수 있는 마법문을 발견할 수 있다. 판정에 실패하면 이 장면에 등장한 PC 전원의 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간, 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 정열로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 (운명)을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가혹한 자연 환경 탓에 여러분은 궁지에 몰렸다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정한다. 성공하면 어떻게든 쓸 만한 것을 찾아서 임의로 선택한 마소가 1점 발생한다. 실패하면 자신이 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 드래곤이 나타난다. 진홍 비늘에 뒤덮인 게 대한 그림자는 머리를 쳐들더니 그 직후 강렬한 불길을 뿜었다. 「힘」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 전원의 판정을 마쳤다면, PC 전원은 1+판정에 실패한 멤버의 수만큼 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 소의 머리가 달린 거한, 미노타우로스가 앞길을 막더니, 손에 든 청동 도끼를 치켜 올린다. 장면에 등장한 PC 중에서 무작위로 대표 한 명을 선택한다. 대표는 「짐승」 영역에서 무작위로 특기 하나를 선택해서 판정해야 한다. 실패하면 PC 전원은 2점의 대미지를 입고, 「타짐」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>책장과 책장 사이에 갑자기 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로연결되어 있는 걸까? P182~183의 이경 장면 표중 하나를 무작위로 선택해서 2d6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날마다 연찬을 거듭해서 마법 수행에 정진했다. 만약 바란다면 장서 칸에 있는 마법을 자신이 습득할 수 있는 다른 마법으로 변경할 수 있다. 만약 마소가 충전되어 있던 마법을 미습득 상태로 되돌렸다면, 그 마소는 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>넓은 강이 흐르는 강변, 강 건너편은 현세일까? 이 장면에 등장한 PC 중 한 명은 《원환》으로 판정할 수 있다. 판정에 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉와 함께 봉인된다. 운명을 맺은 PC의 꿈에 나타나 '어둡다', '무섭다', '도와달라'는 말을 되풀이하지만, 다음 초승달이 뜰 무렵에는 그조차 뚝 끊긴다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅딸막한 노움. 그는 PC들의 바짓단을 붙잡더니 무언가를 말하려 한다. 이 씬에 등장하고 있는 PC는 한 명만, '대지'로 판정을 행한다. 실패하면 [마력]이 2점 감소한다. 성공하면, [일시적 마력]을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시인. 그 인물은 시의 신에게 축복받은 존재다. 이 【비밀】이 공개되면, 그 장면에 「노래」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「노래」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통로가 끊기고, 깊은 균열이 입을 벌리고 있다. 빛도 바닥까지 닿지 않아 마치 땅속 끝까지 이어져 있는 것만 같다. 「어둠」마소를 1점 획득할 수 있다. 누군가 판정을 했다면 성공 여부와 관계 없이 이 효과는 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신을 차리고 보니 아무도 없다. 푸른 벨벳을 씌운 좌석만이 이 공간을 덧없이 장식하고 있다. 장면 플레이어 이외의 PC가 이 장면에 등장하기 위해서는 《정적》판정을 해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배!! 따라준 술을 무심코 마셔버렸다. 어지간하 독한 증류주인 모양인데… 이 장면에 등장한 PC 중 한 명은 《물》로 판정할 수 있다. 성공하면 마화를 1점 입수한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투기장. 마법사가 강화한 원형이나 환수를 싸움 붙이고 있다. 장면 플레이어의 PC는 한 번만 기본 룰북에 실린 랭크4 이하의 〈서적경〉이나 〈월경자〉에게 마법전을 신청할 수 있다. 여기에 승리하면 프라이즈 표를 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가호. 그 인물의 머리 위에는 항상 별의 은총이 내리고 있다. 이 【비밀】이 공개되면, 그 장면에 「별」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「별」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어째서, 네가 여기에? 문을 열자 거기에는 PC의 앵커가 있었다. 씬 플레이어인 PC의 앵커 중에서 랜덤으로 1명을 고른다. 그 앵커가 등장한다. 씬 플레이어인 PC는 그 앵커와 「사건 판정」을 해도 행동완료가 되지 않는다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용한 시립 도서관 , 천장 이 높은 건물 의 벽 전체 를 책꽂이 가 빈틈 없이 메우고 있다. 주위 에서는 책 의 페이지를 넘기는 소리 만 이 울려 퍼진다.장면 플레이어 가 마법사 라면 자기 영역의 마소가 1점 발생한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분명히 건물 안인데, 먹구름이 끼고 폭풍이 불기 시작한다. 신들이 싸우고 있다! 이 장면에 등장한 PC 중 한 명은 《폭풍》으로 판정한다. 실패하면 마력이 2점 감소한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>당신의 눈앞 에 보이지 않는 적이 나타난다.너 같은 걸 상대 할 때가 아닌데 ... 무작위 로 특기 1 개 를 선택한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소 가 1 점 발생 한다. 실패 했을 경우 , 마법사 라면 무작위로 한 가지 상태 이상 에 걸린다 .</x:t>
+    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탑 외벽에 설치된 나선 계단 위. 강풍이 불어닥치고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
   </x:si>
   <x:si>
     <x:t>우자의 세계에서 일어난 사건을 마법으로 몰래 해결한다. 그 기적적인 결말이 동영상 사이트에서 입소문을 탄다. 이 장면에 등장한 PC 중 한 명은 《희망》으로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>밤에도 잠들지 않는 대도시. 클랙션이 울리는 가운데 다양한 피부색의 우자들로 거리가 북적인다. 〈월경자〉가 당신의 앵커를 노리는 것을 알아차렸다. 무작위로 선택한 특기로 판정해서 성공하면 프라이즈 표에서 주사위를 굴릴 수 있다. 실패하면 해당하는 앵커에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자습실. 학생들이 필사적으로 마도서의 내용을 이해하려고 애쓴다. 〈별〉 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「요접」. 이 「정차역」 주변에는 마소를 띤 신기한 색깔의 날개가 달린 나비가 서식한다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 임의의 마소를 2점 획득할 수 있다. 실패하면 무작위로 선택한 한 가지 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 옷. 그 인물은 사실 마법이나 요괴 같은 온갖 초자연적 현상을 부정하는 비밀 결사, 「서클 엔드」의 공작원이었다. 데이터는 〈서클 엔드〉(p177)를 사용한다. GM은 【은폐 공작】을 사용하거나 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥이 하얀 구름으로 이루어진 장소. 구름 틈새로는 현세로 추정되는 풍경이 보인다. 무작위로 특기를 선택해서 판정한다. 판정에 성공하면 이 세션 동안 한 번만 판정에서 굴린 주사위를 다시 굴릴 수 있다. 실패하면 시공을 넘어 앵커가 사후 세계를 엿보고 만다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>학생이 뭔가 마법을 보여달라고 청한다. 꿈 영역에서 무작위로 특기 하나를 선택한다. 이 장면에등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 불운 상태이상에 걸린다. 성공하면,「꿈」 마소를 2점 획득한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>스승. 그 인물은 일찍이 조사자에게 마법을 가르친 스승이었다. 이후, 이후, 이 인물이 있는 장면에서는 자신이 습득한 특기 하나를 습득 가능한 다른 특기로 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 주문 마법 하나를 습득 가능한 다른 주문 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 이미 폐허가 되어버린 먼지투성이 도시. 〈우자)가 허무 빙의자에게 습격당하고 있다. 이 장면에 등장한 PC 중 한 명은 무작위로 선택한 특기로 판정할 수 있다. 성공하면 구출에 성공하며, 도와준 〈우자)에 대해 임의의 속성으로 운명을 1점 획득한다. 실패하면 마력을 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고문장. 죽은 이들이 악귀들의 손에 무한한 고통을 맛보고 있다. 이 장면에 등장한 PC 중 한 명은 《절망》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>남미의 부유한 농원. 빛깔 고운 과실이나 곡물을 키우는 사람들이 느긋하게 노래를 부르는 소리가 들려온다. 이 장면에 등장한 PC 중 한 명은 《대지》로 판정할 수 있다. 성공하면 아무거나 마소를 2점 획득할 수 있다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 상반신과 짐승의 하반신을 가진 여성형 괴물이 나타나더니, 몸을 요염하게 흔들면서 손을 내민다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 3점의 대미지를 입고, 임의로 선택한 마소를 3점 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전장. 발키리가 이끄는 전사들이 거인과 싸우고 있다. 이 장면에 등장한 PC 중 한 명은 《천공》으로 판정할 수 있다. 판정에 성공하면 일시적 마력을 3점 획득할 수 있지만, 실패하면【마력】이 3점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환몽전 내부, 잠자는 공주들의 편안한 숨소리가 들려온다. 이쪽까지 졸려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈 서가가 늘어서 있는 트인 공간. 여기라면 한숨 돌릴 수 있을 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>막다른 길의 벽에는 언뜻 보기에 의미를 알 수 없는 문자가 나열되어 있다. 이 앞으로 가려면 이 문자의 수수께끼를 풀어야 한다는 걸까? 이 장면에 등장한 PC 중 한 명은 《수수께끼》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 실패하면 방에 설치된 함정이 발동해서 이 장면이 강제로 종료된다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무구. 그 인물은 티 없는 마음의 소유자였다. 이 NPC는 프라이즈로 간주한다. 이 프라이즈의 소유자는 세션 동안 한 번만 【정화】 주문을 코스트 없이 사용할 수 있다. 이때, 판정은 자동으로 성공한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>윗층으로 올라가려고 했더니 키마이라가 버티고 있다. 이 장면에 등장한 PC 중 한 명은 《불》로 판정한다. 실패하면 마력이 1점 감소한다. 성공할 때까지 판정을 계속해야 한다. 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 눈앞에 문이 나타난다. 이 문은 이경으로 이어지는 출입구다. 도대체 어디로 연결되어 있는걸까? P182~183의 이경 장면 표 중 하나를 무작위로 선택해서 2D6을 굴리고, 해당하는 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 대규모 폭격에 의해 지평선으로 변한 전쟁터. 어느 나라의 것인지도 알 수 없는 국기가 밤바람에 펄럭인다. 허무 빙의자 하나가 나타나 덤벼든다. 마법전을 한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험의 나날을 보내던 도중에 큰 행복이 찾아온다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 자신의 앵커가 짊어지고 있는 불행이나 자신이 짊어지고 있는 상흔 하나를 무효로 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차장이 나타나 당신이 가진 「표」는 효력이 없다고 알린다. 다른 승객의 눈이 따갑다. 이 장면에 등장한 PC 중 한 명은 다시 한 번 「표」를 조달해야 한다. 혼의 특기 판정을 성공할 때까지 반복해야 한다.</x:t>
+    <x:t>인파로 북적이는 길거리. 건너편에서 당신과 쏙 빼닮은 인물이 걸어온다. 저것은 이 세계의 당신 자신일까? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>봉인. 자신이 습득한 장비 타입 이외의 마법 중에서 무작위로 하나 선택한다. 선택한 마법의 체크칸에 체크한다. 그 마법을 사용하려면 【마력】을 2점 소비해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가게 안에 그윽하게 풍겨나는 커피 냄새. cafe attic 에서 조용히 커피잔을 기울이며 생각에 잠긴다. 장면 플레이어가 마법사라면 노래 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예배당. 죽어서도 여전히 기도를 올리는 영혼이 말 없이 무릎을 꿇고 있다. 이 장면에 등장한 PC 중 한 명은 《기도》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 불운 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패자는 말의 파편으로 변해가고, 승자는 거기에서 미래의 운명을 읽어낸다. 승자는 「사건 표」를 사용한 후, 그 결과를 기록해둔다. 그 후, 그 세션 중에 연 드라마 장면에, 같은 장면에 등장한 캐릭터 한 명을 골라서 한 번만 해당 결과를 적용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계 법칙 「밤 축제」. 별빛이나 제등을 조명 삼아 끝없는 축제가 계속된다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 【치료】 속주를 사용했을 때 소비한 마소 1점당 2점씩의 마력을 회복할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밤의 길거리를 걷는다. 저 멀리 집집마다 따스하게 빛나는 조명이 보인다. 그 장면에 노래 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인파로 북적이는 광장, 축제라도 열었나? 누군가가 부르는 소리가 들린다. 그 장면에 짐승 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유럽을 돌아본다. 멋진 거리의 풍경과 예술, 아름다운 자연, 특산품. 가끔은 여행 기분을 내는 것도 나쁘지 않다.</x:t>
   </x:si>
   <x:si>
     <x:t>낮. 폐허가 된 농촌 근처에서 맛있어 보이는 과일을 발견한다. 《대지》로 판정해서 성공하면 마력이 2점 회복한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>트롤이 이끄는 오크와 고블린의 대군과 만난다. 수백 마리의 괴물들이 야만적인 고함 소리와 함께 마법사들을 덮친다. 「별」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정한다. 전원의 판정을 마쳤다면, 실패한 PC는 1D6점의 대미지를 입는다. 이때, 판정에 성공한 PC의 수만큼 대미지 수치를 경감할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인파로 북적이는 길거리. 건너편에서 당신과 쏙 빼닮은 인물이 걸어온다. 저것은 이 세계의 당신 자신일까? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어둠 속 에서 사악한 존재 가 태동 한다.이대로는 사건 이 더욱 심각 해지고 말 것이다.무작위로 특기 1개를 선택 한다.그 특기 로 판정 해서 성공 했을 경우, 마법사라면 임의 의 마소가 1점 발생한다. 실패 했을 경우 , 닌자 라면 1 점 의 사격 전 대미지 를 입고 , 봉마인이라면 광기를 1장 획득하고 , 마법사라면 운명 변전표를 사용 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>떠들썩한 술집. 손님 중에는 요정이나 마물도 많이 있다. 이 장면에 등장한 PC는 마력이 1점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">복도 중앙. 문을 열고 〈구세계질서〉의 〈서적경〉 「옛 서적의 화신(『마기카로기아』 222페이지 수록)」이 나타났다. 그 는 이 씬에 등장한 PC에게 협력을 제안한다. 이 씬에 등장한 PC 중 한 사람은 《거짓말》로 판정한다. 성공하면 〈서적경〉은 이 시나리오 중, 그 PC가 행하는 마법전에서 한 번만 입회인이 된다. 실패하면 〈서적경〉은 분노를 나 타내며 다음 씬에 그 PC에게 마법전을 걸어온다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진 다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>환락가. 뿔이나 꼬리, 날개가 달린 미녀들이 피부를 노출하는 차림으로 요염한 시선을 보낸다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 원형 「에로스의 처녀를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패하면 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살의. 그 인물은 세상에 대한 넘쳐나는 증오에 사로잡혀 닥치는 대로 남을 해치려 하고 있었다. GM은 사이클을 끝낼 때 무작위로 이 【비밀】의 소유자 이외의 NPC를 1명 선택한다. 그 NPC가 〈단장〉에 빙의되지 않은 〈우자〉라면 사망하며, 그렇지 않다면 이 【비밀】의 소유자 본인이 사망한다. 이때, 어느 쪽이 죽든 간에 이런 사망을 바라지 않는 캐릭터는 「어둠」 분야에서 무작위로 특기를 하나 선택해서 판정할 수 있다. 판정에 성공하면 그 사망을 무효로 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거리의 사람들 사이에서 평온하게 살아간다. 그런 나날 속에서 사소한 사건이 일어났다. 자신의 앵커 한 명을 목표로 선택하여 「사건 표」에서 주사위를 굴릴 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오늘도 시끌벅적한 아오 자메 거리.취객 과 커플 들 사이로 수상한 인물이 모습을 숨겨 가며 걷고 있다.장면 플레이어가 마법사라면 어둠 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문을 열며 나타난 것은 잘 아는 상대였다. 무슨 이유인지 학원에 들어와버린 모양이다. 무작위로 선택한 특기로 판정한다. 여기에 실패하면 「운명변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황야와 오아시스가 있는 아랍 각국을 돌아본다. 무작위로 선택한 특기로 판정해서 성공하면 사건 표에서 주사위를 굴릴 수 있다. 주사위를 1개 굴려 그 결과에 대응하는 인물을 대상으로 삼는다. 1:혁명가 2:병사 3:부호 4:미녀 5:마법사 6:낙타 여기에 더해, 그들은 앵커로 획득한 세션에 한해 백지 비밀을 가진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그릇. 그 인물은 영매 체질이라 무언가에 빙의당하기 쉽다. 이 인물에게 〈단장〉이 빙의하면 【공격력】과 【방어력】이 2점씩 상승한다. 이 【비밀】이 공개되면 GM은 사이클을 끝낼 때 〈단장〉을 하나 선택해서, 그 〈단장〉의 빙의 대상을 이 NPC로 변경할 수 있다. 이미 마법사에게 회수당한 〈단장〉은 선택할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 무언가가 덤벼들었다! 학생이 원형 소환에 실패한 모양이다. '힘'영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한명만 이 판정을 한다. 판정에 실패하면 [마력]이 3점 감소한다. 판정에 성공하면 [일시적 마력]을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계 없이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사들이 모이는 살롱, 이곳이라면 유익한 정보를 얻을 수 있을 것 같다. 이 장면에 등장한 PC 중 한 명은 《이야기》로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「봉인] 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령. 그 인물은 사실 변신한 모습으로 인간계에 나타난 정령이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【정령 소환】을 습득한다. 또, 세션마다 한 번씩 【정령 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마왕. 그 인물은 사실 변신한 모습으로 인간계에 나타난 마왕이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【마왕 소환】을 습득한다. 또, 세션마다 한 번씩 【마왕 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>끝없이 펼쳐진 바다. 작은 섬에서 그 지역의 토주를 대접받는다. 이 장면에 등장한 PC 중 한 명은 《혼돈》으로 판정할 수 있다. 성공하면 그 세션이 종료되기 전까지 【긴급 소환】 판정에 +1의 수정을 얻는다. 실패하면 반대로 -1의 수정을 적용한다. 누군가가 판정을 하면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기사. 그 인물은 사실 변신한 모습으로 인간계에 나타난 기사이었다. 1D6을 굴린 뒤에 다시 2D6을 굴려서 무작위로 특기 하나를 선택한다. 그것이 그 원형이 상징하는 특기다. 조사자는 그 세션 동안에만 그 특기에 해당하는 【기사 소환】을 습득한다. 또, 세션마다 한 번씩 【기사 소환】의 판정에 자동으로 성공할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파란만장한 인생을 보낸다. 이 시대에 일어난 유명한 사건의 배후에는 많은 마법적 존재가 암약했다. 당신도 그 사건에 관여하여 〈금서〉나 〈서적경〉들과 싸웠다. 무작위로 특기 하나를 선택한다. 그 특기로 판정한다. 판정에 성공하면 세션을 종료할 때 공적점을 1점 더 획득한다. 실패했다면 자신에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>말을 걸어온 천애의 예언자가 불행한 미래를 예언한다. 「꿈」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 1점 감소한다. 판정에 성공하면 「꿈」 마소를 1점 획득할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어딘지 알 수 없는 공간. 당신이 가장 사랑하는 인물이 눈앞에 나타난다. 이 장면에 등장한 PC 중 한 명은 《정열》로 판정할 수 있다. 판정에 성공하면 임의의 앵커에 대한 【운명】을 1점 상승시킬 수 있다. 판정에 실패하면 「운명 변전」이 발생한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>황폐해진 방. 텅 빈 책장이 쓰러져 있는 모습이 눈에 띈다. 이것은 대파괴의영향일까….? 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC는 그 특기로 판정해야 한다. 실패하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아름다운 여신이 거울을 들여다보고 있다. 듣자하니 운명이 비치는 거울이라는 모양인데 ……. 이 장면에 등장한 PC 중 한 명은 《미래》로 판정할 수 있다. 성공하면 원하는 앵커와의 운명이 1점 상승한다. 성공 여부와 관계 없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상하좌우조차 알 수 없는 완전힌 어둠. 이 장면에 등장한 PC 중 한 명은 《빛》으로 판정한다. 판정에 성공하면 「어둠」 마소 2점을 획득하지만, 실패하면 「차단」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「밤 축제」. 별빛이나 제등을 조명 삼아 끝없는 축제가 계속된다. 이 장면에 등장한 캐릭터는 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 【치료】 속주를 사용했을 때 소비한 마소 1점당 2점씩의 마력을 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명상 중이었는지, 아니면 무언가 봉인되어 있었는지……. 오랜 잠에서 눈을 뜬다. 벌써 이런 시간인가. 덕분에 충분히 쉴 수 있었다. 자신이 무작위로 마소를 3개 획득하거나, 자신이 「마력 리셋」을 하거나, 자신에게 걸린 상태이상을 모두 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮, 세계 대전으로 추락한 전투기가 사막의 모래에 반쯤 파묻혀 있다. 하지만 엔진은 아직 죽지 않았다. 이 장면에 등장한 PC 중 한 명은 《바람》으로 판정할 수 있다. 성공하면 마력 리셋을 한다. 성공 여부와 관계없이 이 효과는 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>둔갑 동물. 그 인물은 사실 나이를 먹은 여우나 너구리 같은 동물이 둔갑한 존재다. 이 【비밀】이 공개되면, 그 장면에 「짐승」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「짐승」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 말의 파편으로 변해가고, 승자는 거기에서 미래의 운명을 읽어낸다. 승자는 「사건 표」를 사용한 후, 그 결과를 기록해둔다. 그 후, 그 세션 중에 연 드라마 장면에, 같은 장면에 등장한 캐릭터 한 명을 골라서 한 번만 해당 결과를 적용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>친인척. 그 인물은 사실 조사자와 혈연 관계였다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「혈연」으로 정한다. 그 인물의 【운명】 속성이 「혈연」인 동안, 조사자의 부활 판정에 해당하는 【운명】 수치만큼 플러스 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수집. 그 인물은 사실 조사자를 콜렉션으로 삼으려는 〈서적경〉이었다. 데이터는 〈혼혈주의자〉(p175)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 일어나는 바람에, 그 사이클이 끝날 때까지 자신의 행동판정에 -1의 수정이 붙는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>읽던 책을 덮는다. 거기에는 당신이 알고 싶었던 정보가 적혀 있었다. 과연, 그렇게 된 거였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깎아지른 절벽 위. 아래에는 넓은 바다가 펼쳐져 있다. 하늘에서는 바다 새의 울음소리가 들려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 기묘한 형태의 금화 여러 닢으로 변한다. 승자는 쓰러뜨린 상대의 랭크만큼 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>굶주림, 식사를 한 번 할 때마다 밥을 스무 그릇 정도 먹지 않으면 배가 고파서 아무것도 못 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창고, 아직 정리하지 않은 책이 산처럼 쌓여 있고, 사서들이 정신 없이 분류 작업을 하고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사람 한 명이 겨우 지나갈 정도로 좁은 통로가 계속된다. 이 복도는 대체 어디까지 이어지는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계단을 오른다. 도대체 언제부터 오르기 시작했는지 기억나지 않는다. 이 계단 어디에서 끝나는 거지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는 ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시야를 가득 채우는 눈 덮인 들판에 띄엄띄엄 발자국이 남아 있다. 아무래도 선객이 있는 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대로. 환수가 끄는 마차, 하늘을 나는 융단이나 빗자루 따위의 탈것이 바쁘게 눈 앞을 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>숙적. 그 인물은 마법사와 적대하는 존재였다. 숙적 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 당신의 마소를 빼앗는다. 충전한 마소를 임의의 조합으로 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 위, 끝없이 이어진 산맥과 그 위에 떠오른 달이 탑을 조용히 내려다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 직접 당신을 덮친다. 상태이상 표를 사용하여 정해진 상태이상을 받는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법 상인. 그 인물은 마법 도구를 거래하는 탈리스몽거였다. 이후, 이 인물이 있는 장면에서는 자신이 충전한 마소 하나를 다른 마소 하나와 교환할 수 있다. 또, 이 인물이 있는 장면에서는 자신의 장비 마법 하나를 습득 가능한 다른 장비 마법 하나와 교환할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>암흑. 그 인물은 저주받은 운명을 짊어지고 있으며, 세계의 파멸을 초래할 가능성을 품고 있다. 이 【비밀】이 공개되면, 그 장면에 「어둠」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「어둠」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몽상가. 그 인물에게는 장대한 이상이나 실현하고 싶은 꿈이 있다. 뭔가 큰 일을 이루려고 한다. 이 【비밀】이 공개되면, 그 장면에 「꿈」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「꿈」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 마력이 쌓여 마법 재액이 일어나기 직전이다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 마법 재액을 억누르고, 아무거나 마소가 1점 발생한다. 실패하면 마법 재액이 발생하며, 당신의 앵커 중 무작위로 선택한 하나가 〈권속〉이 되어 〈금서〉에게 이용당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「유기」. 이 「정차역」 주변에는 다양한 것들이 버려져 있다. 장면 플레이어가 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우, 마법 【회상】과 같은 효과가 한 번 발생한다. 누구를 대상으로 할지는 장면에 등장한 캐릭터 중에서 무작위로 선택한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바닥, 벽, 천장까지 검붉게 물든 방. 비린내가 진동한다. 이 장면에 등장한 PC 중 한 명은 《피》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하고, 실패하면 (마력)이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>깊은 물속의 밑바닥. 푸른색 공간에 무언가가 떠 다닌다. 이 장면에 등장한 PC 중 한 명은 《바다》로 판정할 수 있다. 판정에 성공하면, 「별」마소를 3점 획득하지만, 실패하면 【마력】이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>광장, 마법사끼리 다투기 시작하더니, 결국 마법까지 주고받으며 싸운다. 이 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소를 2점 획득하지만, 실패하면 이 장소에서 사용된 마법의 영향이 시공을 넘어 앵커에게 미친다. 운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원한. 그 인물은 사실 조사자에게 깊은 원한이 있는 인물이었다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「숙적」으로 정한다. 그 인물의 【운명】 속성이 「숙적」인 동안, 조사자는 펌블을 일으켰을 때 해당하는 【운명】 수치만큼 【마력】이 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 잡초가 무성하고 덩굴로 뒤덮인, 인기척 없는 산골 마을에서 거대한 육식 동물이 덤벼든다. 이 장면에 등장한 PC 중 한 명은 《이빨》로 판정해야 한다. 실패하면, 【마력)을 2점 잃는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
   </x:si>
   <x:si>
     <x:t>방해. 그 인물은 사실 현재 조사자가 쫓는 〈단장〉을 빼앗으려는 〈서적경〉이었다. 데이터는 〈유혹을 속삭이는 자〉(P174)를 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
@@ -413,298 +977,19 @@
     <x:t>"여기 앉아도 될까요?" 당신의 옆자리에 〈서적경〉이 앉는다. 무작위로 특기를 선택해서 판정한다. 그 판정에 성공하면 공개된 핸드아웃 중에서 원하는 것을 골라 해당하는 【비밀】을 공개할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>허약. 【공격력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저주. 그 인물에게는 조사자에게 감염되는 저주의 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 무작위로 선택한 상태이상 한 종류에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「마법문」, 다른 이경으로 통하는 입구가 있다. 「각인에 따른 풍경」에서 |지정한 특기로 판정해서 성공하면 그 마법문을 발견할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손님 한 사람이 억지로 술을 먹였다. 뭐 이렇게 독한 술이 다 있지? 무작위로 특기를 하나 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재판소, 험악한 표정의 재판관이 넘쳐나는 망자들에게 순서대로 판결을 내리고 있다. 《거짓》 판정을 한다. 판정에 실패하면 마력이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살티레 백화점의 옥상. 바람 이 거세 긴 하지만 , 이곳 이라면 시내 가 훤히 보인다.장면 플레이어 가 마법 사라면 별 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 빛의 입자로 변해가고, 승자는 거기에서 마소를 얻는다. 승자는 아무거나 마소를 2점 획득한다(자신의 입회인에게 넘겨줄 수도 있다).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈금서〉 보관고의 입장을 허가받았다. 몇 겹의 결계와 예리한 눈매의 서경들이 눈에 띈다. 그 틈을 노려 〈금서〉가 습격해 왔다! 「힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 해당 판정을 한다. 실패하면 마력을 1점 감소한다. 성공하면 일시적 마력을 3점 얻는다. 누군가가 판정을 하면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희미하게 빛나는 램프가 밝히는 감옥, 감옥 안에는 누군가의 해골이 굴러다니고 있다. 이 장면에 등장한 PC 중 한 명은 《죽음》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 시체가 저주의 말을 내뱉으면서 이 장면에 등장한 PC 전원이 「타짐」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>춥디추운 우주. 무중력에 몸을 맡기고 있는데, 지구에 수놓인 등불에 이끌린다. 저것인가. 《중력》 판정에 성공하면 이 드라마 장면에서 시도하는 판정에 한 번만 +1을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가게 안에 그윽하게 풍겨나 는 커피 냄새.cafe attic 에서 조용히 커피 잔 을 기울이며 생각 에 잠긴다. 장면 플레이어 가 마법사 라면 노래 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주위에서 〈단장〉이 일으킨 마법 재액이 발생한다. 무작위로 특기 하나를 선택해서 판정한다. 성공하면 그 장면에 원하는 마소가 1점 발생한다. 실패하면 「운명 변전 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 도서관, 어느새 인계로 돌아와버린 것 같다. 이 장면에 등장한 PC 중 한 명은 임의의 캐릭터를 한 명 골라 사건 표에서 주사위를 1회 굴리고, 그 효과를 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흉터. 그 인물은 과거에 마법 때문에 소중한 이를 빼앗겼으며, 마법과 거기에 관계된 자를 증오하고 있다. 그 인물이 있는 장면에서는 소환과 주문 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 지면에서 갑자기 나타난 무수한 팔에 끌려가면서, 승자를 향해 찬사의 말과 함께 중요한 정보를 이야기한다. 공개된 핸드아웃 하나를 선택하여 해당하는 【비밀】을 공개한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고막을 때리는 굉음이 울려 퍼진다. 말을 통한 의사 소통은 포기하는 게 나을 것 같다. 《선율》로 판정한다. 실패하면 충전한 마소 중에서 임의로 선택한 것을 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통로 건너편에 문과 간판이 있다. 간판의 문자를 읽어보니 여관이라 는 의미다. 이 장면에 등장한 PC 전원은 한 번만 공적점이나 마화 1점을 소비해서 조율을 1회 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초등학교 앞을 지나간다. 음악실 창 너머로 낯선 음악가의 초상화가 보인다. 노래 영역에서 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「봉인」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에서 예전에 경험한 적이 있는 일이 일어난다. 이 세계에서는 지금부터 일어나는 일이다. 이 장면에 등장한 PC 중 한 명은 이 장면 동안 판정에 +1의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>창밖으로 은하를 지켜보는, 검은 외투를 입은 소녀가 있다. 당신을 알아차리더니 과자를 주며 빙그레 웃고는 자리를 떠났다. 장면 플레이어는 무작위로 선택한 마소를 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유원지. 시끌벅적한 퍼레이드가 눈앞을 지나가고 있는데, 손님은 한 명도 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공포, 높은 곳이나 이성, 거미 등 특정한 무언가에 대한 공포증에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 헤매다가 누군가의 연구실에 들어갔다. 쌓여있는 마도서가 흥미를 끈다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에는 비슷한 모양의 문이 죽 이어지고 있다. 어느 문을 열어야 할까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표적, 살인마나 마법 재액 같은 악의적인 존재의 관심을 끌어들이고 만다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>막다른 골목. 눈앞에는 왠지 커다란 상자가 있다. 이 씬에 등장한 PC 중 한 사람은 《수수께끼》로 판정할 수 있다. 성공하면 상자 안에서 프라이즈를 발견한다. 「프라이즈 표(『대몽소멸』 228페이지 수록/대형판 룰북 79페이지)」를 한 번 사용할 수 있다. 실패하면 함정이 발동한다. 상자는 폭발하고, 이 신에 등장한 PC 전원의 【마력】이 1점 감 소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>한없이 펼쳐진 사막. 날아오르는 모래먼지 때문에 눈을 뜰 수 없다. 《대지》로 판정한다. 실패하면 「봉인」 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 눈을 떴다. 흔들리는 기차 안에서 어느새 잠들었던 모양이다. 꿈 속에서 누군가와 만난 듯한 기분이 든다. 장면 플레이어가 《심연》 판정에 성공하면 무작위로 선택한 앵커와의 운명이 1점 상승한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이곳은... 여자 기숙사? 이 장면에 남성 PC가 등장했다면 짐승 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 남성 PC는 그 특기로 판정한다. 실패하면 「봉인 상태이상에 걸린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>육체가 초목이 시들 듯이 붕괴한다. 견딜 수 없을 만큼 고통스러운 것 같다. 〈영원〉은 의미조차 없는 단말마로 듣는 이를 괴롭히며 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몇 개의 문과 몇 개의 갈림길을 통과했다. 어라? 어느새 길을 잃은 것 같다. 장면 플레이어 이외의 PC가 이 장면에 등장하고 싶다면 《길로 판정해야 한다. 실패한 PC는 이 장면에 등장할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요괴가 문 앞에서 버티면서 지나가지 못하게 막는다. 요괴는 뭔가 달라고 졸라댄다. 이 장면에 등장한 PC 중 한 명은 아무거나 마소를 1점 감소한다. 감소할 마소가 없다면 마력이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불행. 그 인물에게는 조사자의 앵커에게 불행한 사건을 일으키는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자의 앵커 중에서 〈우자〉를 한 명 선택한다. 그 NPC에게 운명 변전 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>알고 지내는 인물의 집 앞. 현관에서 낯선 사람이 나타나 이쪽을 수상하다는 듯이 바라본다. 이 사람, 혹시…...? 무작위로 특기 하나를 선택해서 판정한다. 판정에 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노이즈 섞인 차내 방송이 「정차역」 도착을 알린다. 잠시 후, 「기차」가 멈췄다. 캐릭터는 「정차역」에서 내릴 수 있다. 내린다면 「정차역」의 세계 법칙을 결정하고, 그 법칙에 따라 장면을 진행한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분신. 그 인물은 사실 조사자의 마법으로 분할된 혼의 일부였다. 그 NPC는 조사자와 융합하며, 조사자는 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤, 비를 피하러 사원에 들어간다. 위험한 기척은 느껴지지 않는 것을 보니 느긋하게 쉴 수 있을 것 같다. 조용한 시간이 흘러간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 잃고 헤매다가 누군가가 만든 좁고 비밀스러운 방에 들어갔다. 학원에서는 그다지 먹을 기회가 없는 과자를 잔뜩 넣어둔 모양이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 펼쳐진 업화의 바다. 모든 것을 집어 삼킬 듯한 적의는 압도적이다. 《불》로 판정한다. 실패하면 【마력】이 2점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신성한 광휘와 함께 위엄이 넘치는 신이 나타나 그 자리의 분위기를 휘어잡는다. 이 장면 동안 「세계 법칙」에 「조사 저해」가 추가된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 한 송이 꽃이 된다. 승자는 그 세션 동안 한 번만 자신이 굴린 행동판정의 주사위를 다시 굴릴 권리를 얻는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고중력 지대. 몸 전체가 납으로 변한 것 같은 기분이다. 《중력》으로 판정을 한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑자기 폭발이 일어난다. 누군가가 실험에 실패한 모양이다. 「타짐」 상태이상에 걸린 후, 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 방, 좁지만 가장 마음이 놓이는 장소다. 이 장면에 등장한 PC 중 한 명은 마력을 상한까지 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>손님으로 북적이는 상점가, 망한 가게가 멀쩡히 장사를 하고 있거나, 장사가 잘 되던 가게가 문을 닫은 모습이 보인다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그 주인장인 뇌신에게 트집을 잡힌다. 이 장면에 등장한 PC 중 한 명은 뇌신을 상대로 사건 표에서 주사위를 굴린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>감염, 흡혈귀나 좀비 같은 괴물로 변하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권태, 피로감에 사로잡혀 아무 일도 하기 싫어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학원 서부에 펼쳐진 아덴의 숲, 새의 울음소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가출, 지금 자신이 있는 장소를 불편하게 여겨 실된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 뒷골목. 여기라면 방해받을 일도 없겠지.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배신, 믿었던 인물에게 속거나, 연인이 바람을 핀다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법의 제어에 실패한다. 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아무도 없는 방. 왠지 어딘가에서 속닥속닥 속삭이는 소리가 들려오고, 누군가가 자신을 지켜보는 기분이 든다. 이 장면에 등장한 PC 중한 명은 《불안》으로 판정할 수 있다. 판정에 성공하면 공개된 핸드아웃 중 원하는 것의 비밀을 공개할 수 있다. 판정에 실패하면 「차단」상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모략. 그 인물에게는 자신을 쫓는 마법사를 해치기 위해 〈단장〉이 준비한 마법 함정이 설치되어 있었다. 모략 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭탄. 그 인물에게는 조사자의 육체를 폭발시키는 마법 폭탄이 설치되어 있었다. 이 【비밀】이 공개되면 조사자는 1D6점의 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤. 허무 빙의자의 무리가 따라붙었다. 장면 플레이어는 《악의》로 판정을 한다. 실패하면 이 장면 동안 모든 판정에 -2의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>눈앞에 한 소녀가 나타난다. 잠자는 공주의 우두머리, 라투나다. 항상 잠만 자고 있을 그녀가 나타나다니, 도대체 무엇을 전하러 온 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무관계. 그 인물은 이번 사건과 딱히 관계가 없었다. 하지만 이 만남이 정말로 무의미했을까? 조사자는 그 인물을 대상으로 사건 표를 사용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">길모퉁이. 갑자기 〈금서〉가 나타나 싸움을 걸어왔다! 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기 로 판정한다. 실패하면 【마력】을 3점 잃는다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>한적한 거리, 그림자 같은 형상의 사람들이 때때로 왕래한다. 여기에서는 죽은 캐릭터를 만날 수 있다. 이 장면에 등장한 PC 중 한 명은 상흔을 하나 극복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>길을 왕래하는 행인들로 북적이는 거리. 누구도 당신에게 관심을 보이지 않는다. 이 장면에서는 「불간섭」 세계 법칙을 무시하고 임의로 선택한 캐릭터를 조사할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높은 천장, 그리고 천장에서 이어지는 벽을 가득 메우는 책들. 이 모두가 이 서고에 보관하는 마도서다. 이 장면에 등장한 PC 중 한 명은 일시적마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>〈영원〉의 생명력이 폭주해서 죽음과 재생을 되풀이한다. 도와달라는 애원조차 하지 못한다. 1D6개월 후, 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좀 어둡긴 하지만 따뜻하고, 매우 안락한 공간. 마치 어머니의 뱃속 같다. 이 장면에 등장한 PC가 속주(치료)를 사용하면 마소 1점당 2점의 마력을 회복할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시노노메 신사 의 경내.먹이 를 찾아 모여 든 비둘기 들이 소란 을 피우고 있는 것 같은데 .... … ? 장면 플레이어가 마법사라면 짐승 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노점이 빼곡히 줄지어 선 아시아의 시장. 고운 빛깔의 실크와 식욕을 당기는 냄새가 오감을 자극한다. 갖가지 언어가 뒤섞여 거래가 진행된다. 마치 새가 지저귀는 소리 같다.</x:t>
+    <x:t>기숙사 복도, 거기 누구죠?」 사감 시그리드가 불러 세웠다. 이 장면에 등장한 PC는 자유로 판정한다. 실패하면 이 장면에서 시도하는 모든 판정에 1의 수정을 적용한다.</x:t>
   </x:si>
   <x:si>
     <x:t>패자는 폭발음과 함께 어딘가로 사라지고, 주위에는 유황 냄새 같은 냄새만이 남는다. 승자는 그 세션 중에 한 번만 원하는 타이밍에 상태이상, 한 종류를 회복할 수 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>불운, 주위에서 불행한 우연이 빈발하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양옥 앞. 여기에는 이런 건물 없었을 텐데?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한없이 넓은 꽃밭. 평온한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저해, 비마법적인 이들의 눈에 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재해, 자연 재해에 휘말려 생활 환경이 변한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불길한 기운이 숲을 감싸고 있다. 숨이 막혀온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방향치, 믿기지 않을 정도로 길을 헤매게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변신, 모습이 동물이나 다른 인간으로 변해버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체포, 저지르지도 않은 죄로 잡혀서 유지된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중2병, 종종 안쓰러운 언동을 반복하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소중한 사람이나 동경하는 사람과 만나게 해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·숙사. 간소한 침대가 몇 개인가 남아 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>어색한 발음, 외래어 발음이 모조리 어색해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해 질 녘의 거리. 왠지 쓸쓸한 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 광택이 나는 벌레가 벽 전체에 빈틈없이 달라붙어 날개 소리를 내고 있는 방, 이 정신의 주인은 벌레를 좋아하는 걸까, 아니면 싫어하는 걸까? 이 장면에 등장한 PC 중 한 명은 《벌레로 판정할 수 있다. 판정에 성공하면 원형 벌레의 기사를 그 세션 동안 파트너로 삼을 수 있다. 자신이 어떤 장면에 등장할 때, 파트너는 파괴되거나 소멸하지 않았다면 장면의 종류를 불문하고 같은 타이밍에 소환된다. 판정에 실패했다면 벌레가 일제히 날아올라 이 장면에 등장한 PC 전원의 마력이 1점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비극의 예감. 가족의 불행, 친구의 절망, 동료의 죽음… 이대로 내버려두면 일어날지도 모를 사건의 환각이 보인다. 그 장면에 어둠 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 안쪽 벽에 진열된 무수한 마도서의 앞. 여기에서 뭔가 단서를 얻을 수 있을지도 모른다. 이 장면에 등장한 PC 중 한 명은 일시적 마력을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의점 , 에브리 시노노메점. BGM 이 흘러 나오는 점 내에 어느새 당신 혼자 남아 있다.장면 플레이어 가 마법사라면 꿈 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 그림자가 되어 그 자리에 새겨져서 이경의 입구가 된다. 승자는 아무거나 이경을 하나 선택한다. 그 세션 동안 해당하는 이경으로 이동할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차창 너머로 별빛을 받아 푸르스름하게 빛나는 억새밭이 펼쳐져 있다. 그 가운데에서 이상한 무늬가 그려진 삼각 표지판 몇 개가 듬성듬성 서 있는 것이 보였다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예배당. 죽어서도 여전히 기도를 올리는 영혼이 말 없이 무릎을 꿇고 있다. 이 장면에 등장한 PC 중 한 명은 《기도》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 2점 획득하지만, 실패하면 불운 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검은 로브를 걸친 유귀가 나타난다. 말라 죽은 나무처럼 가느다란 팔을 치켜 올리더니, 저주의 말을 외친다. 유귀의 【마력】은 4점. 「어둠」 영역에서 무작위로 특기 하나를 선택한다. 장면에 등장한 PC 전원은 그 특기로 판정해야 한다. 실패한 PC는 불행 상태이상에 걸리며, 운명 변전이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계 법칙 「낙원」. 이 「정차역」은 아름답고 마음에 위안이 되는 곳이다. 이 「정차역」에 내린 〈우자〉는 그 장소에 매료되어 이곳에서 평생을 보내게 된다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 이를 말릴 수 있다. 이 판정은 대상이 되는 〈우자〉마다 한 번씩만 할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유폐. 그 인물에게는 조사자를 다른 차원의 감옥에 가두는 마법이 걸려 있었다. 이 【비밀】이 공개되면 조사자는 담당 플레이어가 장면 플레이어일 때를 제외하면 클라이맥스 페이즈가 될 때까지 장면에 등장 할 수 없다(메인 페이즈의 마스터 장면에서는 GM이 등장 여부를 마음대로 결정할 수 있다).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날이 새기 전, 회색 황야와 그 중앙을 일직선으로 관통하는 고속 도로, 너무나도 조용해서 자신의 심장 소리가 느껴질 정도다. 허무 빙의자가 하나 나타나 덤벼든다.마법전을 개시한다. 2라운드가 경과할 때까지는 밤, 이후의 라운드는 낮으로 처리한다. 이 마법전은 게임 동안 한 번만 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈주. 그 인물에게는 〈단장〉의 도주를 돕는 마법이 걸려 있었다. 이 【비밀】이 공개되면, GM은 〈단장〉 하나와 NPC 한 명을 선택한다. 그 〈단장〉은 해당 NPC에게 빙의 할 수 있다. 이때, GM은 이미 마법사가 회수한 〈단장〉을 선택할 수도 있으며, 이때는 【마력】을 1D6점 회복한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>옆 차량에서 누군가가 넘어왔다. 놀랍게도 당신의 앵커다. 이 장면에 등장한 PC를 무작위로 한 명 선택하고, 그 PC의 앵커 중에서 이 이경에 존재하지 않는 〈우자〉 앵커를 무작위로 한 명 선택한다. 그 앵커가 원래 세계로 무사히 돌아갈 수 있었다면 게임을 종료할 때 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">파괴된 마도서가 산처럼 쌓여 있는 장소. 책의 산에 숨어 있던 〈단장〉이 싸움을 걸어온다. 랜덤으로 특기를 하나 고른다. 이 씬에 등장한 PC는 그 특기로 판정한다. 성공하면 〈단장〉을 물리치고 원하는 마소를 1점 얻는다. 실패 하면 시공을 넘어 앵커에게 영향이 나타난다. 「운명변전」이 발생한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 하얀 건물이 줄지어 서 있는 아름다운 해변, 한때는 휴양지였겠지만, 지금 그곳에는 대량의 하얀 유골이 떠밀려와 바닷물에 휩쓸리고 있다. 아무나 한 명이 《이별》특기로 판정해서 성공하면 무작위로 선택한 마소 3점을 획득한다. 누군가가 판정을했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하를 건너는 철새 떼. 잠시 「기차」와 나란히 날다가, 이윽고 다시 거리를 두고 은하수처럼 반짝거리는 빛의 띠로 변해간다. 이 장면에 등장한 PC 중 한 명은 《날개》로 판정할 수 있다. 성공하면 마력을 리셋할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+    <x:t>불운. 무작위로 특기 하나를 골라 그 특기의 체크칸에 체크한다. 그 특기를 사용할 수 없게 되며, 그 분야의 특기가 지정특기인 판정을 할 때는 -1의 수정이 붙는다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
   </x:si>
   <x:si>
     <x:t>드러난 피부와 뜨거운 숨결이 가득한 장소, 무수한 남녀가 정신 없이 육욕을 탐하고 있다. 이 장면에 등장한 PC 중 한 명은 《에로스》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하고, 실패하면 마력이 2점 감소한다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
@@ -713,319 +998,34 @@
     <x:t>새하얀 빛에 휩싸인 식당, 호화로운 식사와 맛있는 술을 끝없이 대접받는다. 이 장면에 등장한 PC 중 한 명은 《살》로 판정할 수 있다. 판정에 성공하면 일시적 마력을 1점 획득하지만, 실패하면 「병마」 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이효과는 없어진다.</x:t>
   </x:si>
   <x:si>
-    <x:t>길을 잃었다. 어디로 가야 할까? '별'의 마소 1점이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>땅이 진동하는 소리가 난다. 착각인 걸까? 조금 두려운 기분이 든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지극히 평범한 주택가. 일상적인 행동을 되풀이하는 혼이 모이는 장소다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법재액이 당신의 앵커를 덮친다. 자신에게 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상해, 무지별 폭행을 당하거나, 당신을 증오하는 이에게 상처를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발정, 체온이 상승하고 맥박이 빨라지며 성적인 흥분 상태가 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜렁이, 비정상적으로 자주 넘어지거나 물건을 망가뜨리는 체질이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신의 욕망(금전욕, 명예욕, 육욕, 지식욕 등)을 충족시켜달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고요한 카페 안. 커피 향기와 함께 우아하고 온화한 분위기가 충만하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 안쪽부터 파열하여 산산이 흩어진다. 공적점을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>긴 복도, 학원의 제복을 입은 소년, 소녀들이 웃고 떠들며 달려간다.</x:t>
+    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
   </x:si>
   <x:si>
     <x:t>밤길. 뒤에서 검은 무언가가 아른거리며 쫓아온다. 명확한 모습도 알아볼 수 없건만, 굉장히 무섭다. 무작위로 특기 하나를 선택한다. 이기 장면에 등장한 PC는 그 특기로 판정한다. 판정에 성공하면 원하는 마소 2점을 획득할 수 있다. 판정에 실패하면 아른거리는 형체의 검은 무언가가 자신의 앵커 앞에 나타난다. 「운명 변전」이 발생한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>갑자기 무언가가 습격해 왔다! 미숙한 마법사가 원형 소환에 실패한 모양이다. 힘」 영역에서 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명만 그 특기로 판정한다. 판정에 실패하면 마력이 3점 감소한다. 판정에 성공하면 【일시적 마력)을 3점 얻는다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마도서 열람실, 몇 명의 마법사가 열심히 마도서를 읽고 있다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 중 한 명은 그 특기로 판정할 수 있다. 판정에 성공하면 습득한 마법 하나를 습득 가능한 다른 마법으로 바꿀 수 있다. 실패하면 「봉인 상태이상에 걸린다. 누군가가 판정을 했다면 성공 여부와 관계없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새가 지저귀는 소리가 들린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신을 둘러싼 불행을 없애달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실명, 눈이 보이지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정령들이 부지런히 돌아다니고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>허언, 사실을 말하지 못하게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정한 누군가를 벌해달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표본이 죽 늘어선 지하실. 실험으로 태어난 마법 생물이 병 속에 갇힌 채 나열되어 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건배를 외치는 소리, 주정뱅이의 웃음소리, 이쪽저쪽에서 목청껏 이야기를 나누는 소리…….. 흔히 볼 수 있는 술집의 풍경이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>덜컹, 덜컹. 덜컹, 덜컹. 유리보다 더 투명한 은하수의 곁을 달린다. 형형색색의 꽃들이 별빛을 받으며 창 너머로 지나간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요정들이 짓궃은 장난을 쳐온다! 랜덤으로 특기를 골라 해당 특기로 판정을 진행한다. 판정에 실패했을 시 '운명변전'이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데 … ? 책상 , 의자 , 서류함 따위 가 주위 에 널려 있다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거친 날씨로 지형이 일변한다. 조금 전까지의 광경이 거짓말 같다. 《폭풍》으로 판정한다. 실패하면 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 무수한 페이지가 되어 지면에 흩어지고, 승자는 거기에서 미지의 힘을 읽어낸다. 승자는 일시적 마력을 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시의 문. 새로운 지식을 얻기 위해 찾아온 이, 자신의 세계로 돌아가는 이………. 다양한 세계의 다양한 사람들이 왕래한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패자는 감미로운 음악으로 변하고, 그 곡은 승자의 마음에 스며든다. 승자는 쓰러뜨린 상대의 랭크와 같은 수치의 마화를 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여기가 아닌 어딘가. 마법의 힘이 충만한 이경 중 한 곳으로 한순간의 여행을 떠난다. 그 장면에 별 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">어디선가 솟아나오고 있는 물이 바닥에 분수를 만들고 있는 장소. 샘 위에 누군가가 불러낸 원형이 떠 있다. 랜덤 으로 특기를 하나 고른다. 그 특기로 판정한다. 성공하면 【일시적 마력】을 1점 얻는다. 실패하면 공격받아 【마력】 이 1점 감소한다. 누군가가 판정을 실행하면, 성패에 관계없이 이 효과는 사라진다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">사모. 그 인물은 사실 조사자에 대해 알고 있으며, 깊이 사랑하고 있다. 조사자는 그 인물에 대한 【운명】을 2점 상승시키고, 속성을 「연애」로 정한다. 그 인물의 【운명】 속성이 「연애」인 동안, 조사자는 그 인물에 대한 【운명】이 1점 상승할 때마다 【마력】을 해당하는 【운명】 수치만큼 회복한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>괴물이 나타나 여러분을 덮친다. 무작위로 특기 하나를 선택한다. 이 장면에 등장한 PC 전원은 그 특기로 판정한다. 판정에 성공하면 괴물을 쓰러뜨리며, 임의로 선택한 마소가 1점 발생한다. 판정에 실패하면, 싸우다 입은 부상이 시간과 공간을 넘어 앵커에게 불행을 가져다준다. 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이 「정차역」 주변은 죽은 〈우자들〉의 종착점이기도 하다. 혹시 여기에서 내리는 〈우자〉가 있다면, 그 인물은 죽은 것이다. 이 장면에 등장한 캐릭터가 그 〈우자〉를 앵커로 두고 있다면, 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공할 경우 대상을 「상흔」으로 만들지 않고 운명 칸에서 소거할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은하수 곁에 오도카니 떠 있는 섬에 어딘가에서 본 듯한 하얗고 근사한 십자가가 우뚝 서 있다. 이 장면에 등장한 PC 중 한명은 《기도》로 판정할 수 있다. 성공하면 이후 이 게임 동안 발생하는 마법 재액을 한 번만 무효로 할 수 있다. 누군가가 판정을 했다면 성공 여부와 관계 없이 이 효과는 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질투. 그 인물은 사실 조사자의 실력을 시샘하는 〈대법전〉의 마법사였다. 데이터는 〈화형 집행인〉(p174)을 사용한다. 단, 마법을 사용하려면 마소가 필요하며, 마법사를 콜렉션으로 삼지는 못한다. GM은 조사자의 앵커나 조사자에게 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작은 객실에서 〈대법전〉에서 온 사자와의 회합이 진행되고 있다. 천애가 새로운 예언을 전달하고 있는 걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역전의 로터리에 나가 보니 귀가 중인 학생들이 눈에 들어온다. 저 학교 교복의 리본이 빨간색이었던가?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수풀에서 부스럭거리는 소리가 난다. 뭐지? 자세히 보면 사슴이 코를 킁킁 거리며 당신들을 쳐다보고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>얀데레, PC를 병적으로 사랑하게 되며, 자기 이외의 누군가가 PC에게 호감을 품으면 공격적으로 대한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거센 바람이 불며 구름이 흘러간다. 멀리서 천둥 소리가 들렸다. 그 장면에 힘 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인연. 그 인물은 조사자와 예상 외의 인연이 있는 〈우자〉였다. 인연 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문득 그럴 기분이 들어, 마음에 든 장소를 찾았다. 마음이 편해진다. 【일시적 마력】을 1점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>낮. 〈우자) 어린이가 역사적인 유산을 놀이터 삼아 혼자 놀고 있다. 이 아이의 미래는 어찌 될 것인가.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>크레도의 탑으로 이어지는 험악한 산길, 뭔가가 숨어 있기라도...? [짐승」마소를 1점 획득할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정신이 망가진다. 〈영원〉은 망가진 악기처럼 자신의 꿈이나 소망을 작은 목소리로 되풀이해서 말하다가 계절이 바뀔 때 죽는다. 〈영원〉을 앵커로 두고 있다면, 그 앵커는 상흔이 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이런 곳에 있을 리가 없는 인물이 당신의 앞에 나타난다. 잠자는 공주의 꿈속에 우연히 들어와버린 모양이다. 무작위로 특기 하나를 선택해서 판정한다. 실패하면 「운명 변전」이 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신 이외의 특정한 누군가를 도와달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영감, 보일 리가 없는 것이 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뚱보, 깜짝 놀랄 정도로 살이 찐다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신이 잃어버린 무언가를 되찾아달라.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭로, 숨기고 싶었던 비밀을 폭로당한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기억상실, 친구나 PC를 잊어버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발냄새, 서글플 정도로 발냄새가 심해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불면, 잠을 자지 못하게 되어 피폐해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고양이 귀, 머리에 고양이 귀가 생긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>살랑거리는 풀에서 부드러운 풀내음이 난다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화재, 이 불타시 돌아갈 곳이 없어진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도난, 소중한 것을 도둑맞아 잃는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별 역전, 육체의 성별이 반전한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탈의, 그 자리에서 모든 옷을 벗는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가해, 남을 다치게 하거나 죽여버린다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유괴, 누군가에게 납치당해 감금된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초능력. 그 인물에게는 ESP나 PK 같은 초능력이 잠재되어 있었다. 이 【비밀】이 공개되면, 그 장면에 「힘」 마소가 2점 발생한다. 또, 이번 세션 동안 이 인물에 대한 【운명】이 1점 상승한 캐릭터는 「힘」 마소를 2점 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처의 돌에서 반짝거리는 빛이 보인다. 당신은 무심코 그곳에 손을 뻗는다. 이 씬에 등장하고 있는 PC는 한명만, '우연'으로 판정을 행한다. 성공하면, 그 사이클 동안 모든 판정에 +1의 보정을 받는다. 실패하면 아무 일도 일어나지 않는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단장. 그 인물에게는 이번 사건과 관계 없는 〈단장〉이 빙의되어 있었다. 데이터는 〈열락〉(P173)을 사용한다. GM은 조사자와 적대하는 〈단장〉 쪽에 입회하거나, 마법전을 신청하는 등 조사자를 방해하는 방침으로 이 NPC를 조작해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>백은 갑옷을 입은 기사가 나타난다. 기사는 일대일 결투를 신청했다. 장면에 등장한 PC 중에서 대표 한 명을 선택한다. 대표는 「노래」 영역에서 무작위 로 특기 하나를 선택해서 판정해야 한다. 실패하면, 대표가 5점의 대미지를 입는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이상한 어미, 왠지 자신이 말하는 말의 어미가 이상해진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탑 외벽에 설치된 나선 계단 위. 강풍이 불어닥치고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거대한 원탁이 준비된 방. 아무래도 이곳은 회의장인 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>폭주, 종종 자신의 감정을 제어하지 못하고 흉포하게 군다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이중인격, 또 하나의 인격이 나타나 제멋대로 행동하기 시작한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편애, 특정한 물건이나 상황 등에 열광적인 애정을 보이게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증오, 주위의 누군가나 PC에 대해 격심한 증오를 품게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·연구실. 깨진 실험기구나 탁자의 잔해들이 흩어져 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과로, 터무니 없는 양의 업무에 쫓겨 심신 모두 피로에 찌든다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>망상, 당치도 않은 기묘한 망상이 머리에서 떠나지 않게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농락, 누가 봐도 건실하지 못한 상대에게 마음을 빼앗긴다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤의 길거리를 걷는다. 저 멀리 집집마다 따스하게 빛나는 조명이 보인다. 그 장면에 노래 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입에서 꺼낸 말조차 얼어버릴 것만 같은 지독한 추위. 생물의 기척은 느껴지지 않는다. 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인파로 북적이는 광장, 축제라도 열었나? 누군가가 부르는 소리가 들린다. 그 장면에 짐승 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유럽을 돌아본다. 멋진 거리의 풍경과 예술, 아름다운 자연, 특산품. 가끔은 여행 기분을 내는 것도 나쁘지 않다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불운. 무작위로 특기 하나를 골라 그 특기의 체크칸에 체크한다. 그 특기를 사용할 수 없게 되며, 그 분야의 특기가 지정특기인 판정을 할 때는 -1의 수정이 붙는다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특수한 이경을 여행했다. 그 때문인지 인계에서 무슨 일이 일어났는지 전혀 모른다. 우라시마 타로가 된 기분이다. 이경의 특산물을 구해왔다. 마화 1D6점을 획득한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갑작 스러운 비.우산 을 챙기지 못한 학생들 은 키타 로쿠 분기 상점가 의 아케이드 거리 로 달려 간다. 장면 플레이어 가 마법사 라면 힘 마소 가 1 점 발생 한다 .</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기숙사 복도, 거기 누구죠?」 사감 시그리드가 불러 세웠다. 이 장면에 등장한 PC는 자유로 판정한다. 실패하면 이 장면에서 시도하는 모든 판정에 1의 수정을 적용한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">파괴된 서가가 쌓여 만들어진 미로 같은 통로가 계속된다. 이 앞에는 무엇이 있는 걸까. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>번화가. 건물의 대형 모니터에서 어딘지 모를 나라들의 전쟁 소식을 전하는 뉴스가 나온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기인. 그 인물은 특수한 성질을 지닌 〈우자〉였다. 기인 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승객이 없는 전철 내부, 안내 방송에서 종종 듣도 보도 못한 역의 이름이 흘러 나온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수명. 그 인물의 명맥은 한계에 도달했다. 이 【비밀】이 공개되면 그 인물은 사망한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>천장이 높은 복도, 두꺼운 문 너머에서 수업을 하는 강사의 목소리가 희미하게 들려온다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선량한 인물. 그 인물은 마음이 매우 상냥했다. 그 인물에 대한 【운명】을 3점 상승시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>밤에 거리를 돌아다닌다. 잘 아는 풍경인데도 어딘가 다르다는 위화감을 떨칠 수가 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전·열람실. 몇 명의 마법사들이 쉬고 있다. 여기라면 여러 이야기를 들을 수 있을 것 같다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동맹. 그 인물은 마법사와 동맹을 맺은 상대였다. 동맹 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역장. 그 인물은 마소를 생산하는 특수한 〈우자〉였다. 역장 표에서 상세한 설정을 결정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꿈 속. 먼 과거의 풍경이 당신의 앞에 나타난다. 그 장면에 꿈 마소가 1점 발생한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평범하기 그지없는 평화로운 풍경. 하지만 그런 일상의 배후에서 마법 재액의 그림자를 느낀다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>눈앞에 아름다운 흑룡이 나타났다. 학원장 자날파토스다. 대체 무슨 말을 하러 나타난 걸까?</x:t>
   </x:si>
   <x:si>
-    <x:t>타짐. 마법전 동안 각 라운드가 종료할 때 자신의 【마력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>봉인. 자신이 습득한 장비 타입 이외의 마법 중에서 무작위로 하나 선택한다. 선택한 마법의 체크칸에 체크한다. 그 마법을 사용하려면 【마력】을 2점 소비해야 한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병마. 【방어력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>차단. 【근원력】이 1점 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴우, 큰일날 뻔했다. 아무 일도 일어나지 않는다.</x:t>
+    <x:t>세계 법칙 「마법문」, 다른 이경으로 통하는 입구가 있다. 「각인에 따른 풍경」에서 지정한 특기로 판정해서 성공하면 그 마법문을 발견할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벚나무나 은행나무가 줄 지어 서있는 아카시로온시 공원, 산책로 너머에서 다가온 것의 정체는?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용한 시립 도서관, 천장 이 높은 건물의 벽 전체를 책꽂이가 빈틈없이 메우고 있다. 주위에서는 책의 페이지를 넘기는 소리만이 울려 퍼진다. 장면 플레이어 가 마법사라면 자기 영역의 마소가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갑작스러운 비. 우산을 챙기지 못한 학생들은 키타 로쿠 분기 상점가의 아케이드 거리로 달려 간다. 장면 플레이어가 마법사라면 힘 마소 가 1점 발생한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>어둠 속에서 사악한 존재가 태동한다.이대로는 사건이 더욱 심각해지고 말 것이다. 무작위로 특기 1개를 선택한다. 그 특기로 판정해서 성공했을 경우, 마법사라면 임의의 마소가 1점 발생한다. 실패했을 경우, 닌자라면 1점의 사격전 대미지를 입고, 봉마인이라면 광기를 1장 획득하고 , 마법사라면 운명 변전표를 사용한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>폐허가 된 제 3 코이와 빌딩. 이 층 에는 아무도 없을 텐데…? 책상, 의자, 서류함 따위가 주위에 널려있다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1822,7 +1822,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>247</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1830,7 +1830,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>315</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1838,7 +1838,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1846,7 +1846,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1854,7 +1854,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1862,7 +1862,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1870,7 +1870,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>316</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -1878,7 +1878,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1886,7 +1886,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1894,7 +1894,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -1902,11 +1902,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1927,7 +1927,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -1935,7 +1935,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -1943,7 +1943,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -1951,7 +1951,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -1959,7 +1959,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -1967,7 +1967,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>250</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -1975,7 +1975,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -1983,7 +1983,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -1991,7 +1991,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -1999,7 +1999,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2007,11 +2007,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2032,7 +2032,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2040,7 +2040,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2048,7 +2048,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>243</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2056,7 +2056,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2064,7 +2064,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2072,7 +2072,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2080,7 +2080,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2088,7 +2088,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2096,7 +2096,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>159</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2104,7 +2104,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2112,11 +2112,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2137,7 +2137,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2145,7 +2145,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2153,7 +2153,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2161,7 +2161,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>217</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2169,7 +2169,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2177,7 +2177,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2185,7 +2185,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2193,7 +2193,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>220</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2201,7 +2201,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2209,7 +2209,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2217,11 +2217,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2242,7 +2242,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2250,7 +2250,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2258,7 +2258,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2266,7 +2266,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2274,7 +2274,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2282,7 +2282,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>264</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2290,7 +2290,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2298,7 +2298,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2306,7 +2306,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>262</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2314,7 +2314,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2322,11 +2322,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2347,7 +2347,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2355,7 +2355,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2363,7 +2363,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>311</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2371,7 +2371,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2379,7 +2379,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>305</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2387,7 +2387,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2395,7 +2395,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>307</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2403,7 +2403,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>255</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2411,7 +2411,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2419,7 +2419,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2427,11 +2427,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2452,7 +2452,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2460,7 +2460,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2468,7 +2468,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2476,7 +2476,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2484,7 +2484,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2492,7 +2492,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>210</x:v>
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2500,7 +2500,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>261</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2508,7 +2508,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2516,7 +2516,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>214</x:v>
+        <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2524,7 +2524,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2532,11 +2532,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2557,7 +2557,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2565,7 +2565,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2573,7 +2573,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2581,7 +2581,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>312</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2589,7 +2589,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2597,7 +2597,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>213</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2605,7 +2605,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>304</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2613,7 +2613,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2621,7 +2621,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2629,7 +2629,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>248</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2637,11 +2637,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2662,7 +2662,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2670,7 +2670,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2678,7 +2678,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2686,7 +2686,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2694,7 +2694,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2702,7 +2702,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2710,7 +2710,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2718,7 +2718,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>260</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2726,7 +2726,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2734,7 +2734,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2742,11 +2742,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2767,7 +2767,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2783,7 +2783,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2791,7 +2791,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>301</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2799,7 +2799,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2807,11 +2807,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2832,7 +2832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2840,7 +2840,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2848,7 +2848,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2856,7 +2856,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>306</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2864,7 +2864,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>314</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2872,11 +2872,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>313</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -2897,7 +2897,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>216</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -2905,7 +2905,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -2913,7 +2913,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>171</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -2921,7 +2921,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -2929,7 +2929,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -2937,7 +2937,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>229</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -2945,7 +2945,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -2953,7 +2953,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -2961,7 +2961,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -2969,7 +2969,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -2977,11 +2977,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3002,7 +3002,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>253</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3010,7 +3010,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3018,7 +3018,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3026,7 +3026,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>283</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3034,7 +3034,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3042,11 +3042,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3067,7 +3067,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3075,7 +3075,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3083,7 +3083,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3091,7 +3091,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3099,7 +3099,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>150</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3107,11 +3107,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>211</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3132,7 +3132,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3140,7 +3140,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3148,7 +3148,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3156,7 +3156,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3164,7 +3164,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3172,11 +3172,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3197,7 +3197,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>308</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3205,7 +3205,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3213,7 +3213,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3221,7 +3221,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3229,7 +3229,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>310</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3237,11 +3237,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3262,7 +3262,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3270,7 +3270,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3278,7 +3278,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>281</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3294,7 +3294,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3302,11 +3302,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3327,7 +3327,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3335,7 +3335,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3343,7 +3343,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3351,7 +3351,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3359,7 +3359,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3367,11 +3367,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3392,7 +3392,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>265</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3400,7 +3400,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>196</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3408,7 +3408,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>233</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3416,7 +3416,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>268</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3424,7 +3424,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>237</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3432,11 +3432,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>225</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3457,7 +3457,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3465,7 +3465,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3473,7 +3473,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3481,7 +3481,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3489,7 +3489,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3497,7 +3497,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3505,7 +3505,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3513,7 +3513,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>246</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3521,7 +3521,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3529,7 +3529,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3537,11 +3537,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3562,7 +3562,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3570,7 +3570,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>263</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3578,7 +3578,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3586,7 +3586,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3594,7 +3594,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3602,11 +3602,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3627,7 +3627,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3635,7 +3635,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3643,7 +3643,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3651,7 +3651,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>284</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3659,7 +3659,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3667,11 +3667,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>207</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3682,7 +3682,7 @@
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="B9" activeCellId="0" sqref="B9:B9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -3692,7 +3692,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3700,7 +3700,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3708,7 +3708,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3716,7 +3716,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3724,7 +3724,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3732,7 +3732,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -3740,7 +3740,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -3748,7 +3748,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -3756,7 +3756,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -3764,7 +3764,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -3772,11 +3772,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3787,7 +3787,7 @@
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B6"/>
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -3797,7 +3797,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3805,7 +3805,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3813,7 +3813,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3821,7 +3821,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3829,7 +3829,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3837,11 +3837,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3862,7 +3862,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3870,7 +3870,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>276</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3878,7 +3878,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3886,7 +3886,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3894,7 +3894,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3902,11 +3902,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>222</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3916,7 +3916,7 @@
   <x:sheetPr codeName="Sheet32"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3927,7 +3927,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -3935,7 +3935,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -3943,7 +3943,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -3951,7 +3951,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -3959,7 +3959,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -3967,11 +3967,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -3992,7 +3992,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4000,7 +4000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4008,7 +4008,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>294</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4016,7 +4016,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4024,7 +4024,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4032,11 +4032,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>223</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4057,7 +4057,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4065,7 +4065,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4073,7 +4073,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4081,7 +4081,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>295</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4089,7 +4089,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4097,11 +4097,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>293</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4122,7 +4122,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>266</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4130,7 +4130,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>186</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4138,7 +4138,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4146,7 +4146,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4154,7 +4154,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4162,11 +4162,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4187,7 +4187,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4195,7 +4195,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4203,7 +4203,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4211,7 +4211,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4219,7 +4219,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4227,11 +4227,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4252,7 +4252,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>277</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4260,7 +4260,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4268,7 +4268,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4276,7 +4276,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4284,7 +4284,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4292,11 +4292,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>278</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4320,7 +4320,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4328,7 +4328,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4336,7 +4336,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>170</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4344,7 +4344,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4352,7 +4352,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4360,11 +4360,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>322</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4374,7 +4374,7 @@
   <x:sheetPr codeName="Sheet39"/>
   <x:dimension ref="A1:B6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="B7" activeCellId="0" sqref="B7:B7"/>
     </x:sheetView>
   </x:sheetViews>
@@ -4388,7 +4388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>319</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4396,7 +4396,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>318</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4404,7 +4404,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4412,7 +4412,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>320</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4420,7 +4420,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>321</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4428,11 +4428,11 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>300</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4443,7 +4443,7 @@
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B11"/>
+      <x:selection activeCell="G28" activeCellId="0" sqref="G28:G28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -4453,7 +4453,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4461,7 +4461,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4469,7 +4469,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4477,7 +4477,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4485,7 +4485,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>228</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4493,7 +4493,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4501,7 +4501,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4509,7 +4509,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4517,7 +4517,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4525,7 +4525,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4533,11 +4533,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4558,7 +4558,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4566,7 +4566,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4574,7 +4574,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4582,7 +4582,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4590,7 +4590,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4598,7 +4598,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4606,7 +4606,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4614,7 +4614,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4622,7 +4622,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>149</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4630,7 +4630,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4638,11 +4638,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4663,7 +4663,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4671,7 +4671,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4679,7 +4679,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4687,7 +4687,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4695,7 +4695,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4703,7 +4703,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4711,7 +4711,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>205</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4719,7 +4719,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4727,7 +4727,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4735,7 +4735,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4743,11 +4743,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>212</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4768,7 +4768,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4776,7 +4776,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4784,7 +4784,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4792,7 +4792,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>303</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4800,7 +4800,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>309</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4808,7 +4808,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4816,7 +4816,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>155</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4824,7 +4824,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4832,7 +4832,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4840,7 +4840,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4848,11 +4848,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4873,7 +4873,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4881,7 +4881,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>282</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4889,7 +4889,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -4897,7 +4897,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -4905,7 +4905,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -4913,7 +4913,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -4921,7 +4921,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -4929,7 +4929,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -4937,7 +4937,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -4945,7 +4945,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>219</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -4953,11 +4953,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>218</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -4968,7 +4968,7 @@
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+      <x:selection activeCell="B12" activeCellId="0" sqref="B12:B12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -4978,7 +4978,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2" ht="17.14999999999999857891">
@@ -4986,7 +4986,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2" ht="17.14999999999999857891">
@@ -4994,7 +4994,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2" ht="17.14999999999999857891">
@@ -5002,7 +5002,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2" ht="17.14999999999999857891">
@@ -5010,7 +5010,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2" ht="17.14999999999999857891">
@@ -5018,7 +5018,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2" ht="17.14999999999999857891">
@@ -5026,7 +5026,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2" ht="17.14999999999999857891">
@@ -5034,7 +5034,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2" ht="17.14999999999999857891">
@@ -5042,7 +5042,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>302</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2" ht="17.14999999999999857891">
@@ -5050,7 +5050,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2" ht="17.14999999999999857891">
@@ -5058,11 +5058,11 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>